--- a/datas/shared/KillDropItems.xlsx
+++ b/datas/shared/KillDropItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="600" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="grassLand" sheetId="4" r:id="rId1"/>
@@ -21,17 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INT_killedMin</t>
+    <t>INT_killScoreMin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INT_killedMax</t>
+    <t>INT_killScoreMax</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -39,26 +39,233 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_1:1:50,dragonMaterials:redCrystal_1:1:50</t>
+    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:greenCrystal_1:2:40,dragonMaterials:rune_1:2:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:greenCrystal_1:3:40,dragonMaterials:rune_1:3:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:greenCrystal_1:4:40,dragonMaterials:rune_1:4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:rune_2:1:25,dragonMaterials:greenSoul_2:1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:greenCrystal_2:2:25,dragonMaterials:rune_2:2:25,dragonMaterials:greenSoul_2:2:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:greenCrystal_2:3:25,dragonMaterials:rune_2:3:25,dragonMaterials:greenSoul_2:3:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:greenCrystal_2:4:25,dragonMaterials:rune_2:4:25,dragonMaterials:greenSoul_2:4:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:rune_3:1:25,dragonMaterials:greenSoul_3:1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:greenCrystal_3:2:25,dragonMaterials:rune_3:2:25,dragonMaterials:greenSoul_3:2:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:greenCrystal_3:3:25,dragonMaterials:rune_3:3:25,dragonMaterials:greenSoul_3:3:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:greenCrystal_3:4:25,dragonMaterials:rune_3:4:25,dragonMaterials:greenSoul_3:4:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:greenCrystal_4:1:25,dragonMaterials:rune_4:1:25,dragonMaterials:greenSoul_4:1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:greenCrystal_4:2:25,dragonMaterials:rune_4:2:25,dragonMaterials:greenSoul_4:2:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:greenCrystal_4:3:25,dragonMaterials:rune_4:3:25,dragonMaterials:greenSoul_4:3:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:greenCrystal_4:4:25,dragonMaterials:rune_4:4:25,dragonMaterials:greenSoul_4:4:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:greenCrystal_1:1:40,dragonMaterials:rune_1:1:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:redCrystal_1:1:40,dragonMaterials:rune_1:1:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:redCrystal_1:2:40,dragonMaterials:rune_1:2:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:redCrystal_1:3:40,dragonMaterials:rune_1:3:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:redCrystal_1:4:40,dragonMaterials:rune_1:4:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:redCrystal_2:1:25,dragonMaterials:rune_2:1:25,dragonMaterials:redSoul_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:redCrystal_2:2:25,dragonMaterials:rune_2:2:25,dragonMaterials:redSoul_2:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:redCrystal_2:3:25,dragonMaterials:rune_2:3:25,dragonMaterials:redSoul_2:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:redCrystal_2:4:25,dragonMaterials:rune_2:4:25,dragonMaterials:redSoul_2:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:redCrystal_3:1:25,dragonMaterials:rune_3:1:25,dragonMaterials:redSoul_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:redCrystal_3:2:25,dragonMaterials:rune_3:2:25,dragonMaterials:redSoul_3:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:redCrystal_3:3:25,dragonMaterials:rune_3:3:25,dragonMaterials:redSoul_3:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:redCrystal_3:4:25,dragonMaterials:rune_3:4:25,dragonMaterials:redSoul_3:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:redCrystal_4:1:25,dragonMaterials:rune_4:1:25,dragonMaterials:redSoul_4:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:redCrystal_4:2:25,dragonMaterials:rune_4:2:25,dragonMaterials:redSoul_4:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:redCrystal_4:3:25,dragonMaterials:rune_4:3:25,dragonMaterials:redSoul_4:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:redCrystal_4:4:25,dragonMaterials:rune_4:4:25,dragonMaterials:redSoul_4:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:rune_1:1:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:blueCrystal_1:2:40,dragonMaterials:rune_1:2:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:blueCrystal_1:3:40,dragonMaterials:rune_1:3:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:blueCrystal_1:4:40,dragonMaterials:rune_1:4:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:rune_2:1:25,dragonMaterials:blueSoul_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:blueCrystal_2:2:25,dragonMaterials:rune_2:2:25,dragonMaterials:blueSoul_2:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:blueCrystal_2:3:25,dragonMaterials:rune_2:3:25,dragonMaterials:blueSoul_2:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:blueCrystal_2:4:25,dragonMaterials:rune_2:4:25,dragonMaterials:blueSoul_2:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:rune_3:1:25,dragonMaterials:blueSoul_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:blueCrystal_3:2:25,dragonMaterials:rune_3:2:25,dragonMaterials:blueSoul_3:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:blueCrystal_3:3:25,dragonMaterials:rune_3:3:25,dragonMaterials:blueSoul_3:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:blueCrystal_3:4:25,dragonMaterials:rune_3:4:25,dragonMaterials:blueSoul_3:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:blueCrystal_4:1:25,dragonMaterials:rune_4:1:25,dragonMaterials:blueSoul_4:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:blueCrystal_4:2:25,dragonMaterials:rune_4:2:25,dragonMaterials:blueSoul_4:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:blueCrystal_4:3:25,dragonMaterials:rune_4:3:25,dragonMaterials:blueSoul_4:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:blueCrystal_4:4:25,dragonMaterials:rune_4:4:25,dragonMaterials:blueSoul_4:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:greenCrystal_3:5:25,dragonMaterials:rune_3:5:25,dragonMaterials:greenSoul_3:5:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:greenCrystal_4:5:25,dragonMaterials:rune_4:5:25,dragonMaterials:greenSoul_4:5:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:greenCrystal_4:6:25,dragonMaterials:rune_4:6:25,dragonMaterials:greenSoul_4:6:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:greenCrystal_4:8:25,dragonMaterials:rune_4:8:25,dragonMaterials:greenSoul_4:8:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:greenCrystal_4:10:25,dragonMaterials:rune_4:10:25,dragonMaterials:greenSoul_4:10:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
   </si>
   <si>
     <t>INT_killScoreMin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INT_killScoreMax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:redCrystal_3:5:25,dragonMaterials:rune_3:5:25,dragonMaterials:redSoul_3:5:26</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:redCrystal_4:5:25,dragonMaterials:rune_4:5:25,dragonMaterials:redSoul_4:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:redCrystal_4:6:25,dragonMaterials:rune_4:6:25,dragonMaterials:redSoul_4:6:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:redCrystal_4:8:25,dragonMaterials:rune_4:8:25,dragonMaterials:redSoul_4:8:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:redCrystal_4:10:25,dragonMaterials:rune_4:10:25,dragonMaterials:redSoul_4:10:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:blueCrystal_3:5:25,dragonMaterials:rune_3:5:25,dragonMaterials:blueSoul_3:5:26</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:blueCrystal_4:5:25,dragonMaterials:rune_4:5:25,dragonMaterials:blueSoul_4:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:blueCrystal_4:6:25,dragonMaterials:rune_4:6:25,dragonMaterials:blueSoul_4:6:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:blueCrystal_4:8:25,dragonMaterials:rune_4:8:25,dragonMaterials:blueSoul_4:8:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:blueCrystal_4:10:25,dragonMaterials:rune_4:10:25,dragonMaterials:blueSoul_4:10:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,8 +305,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,8 +357,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -285,8 +543,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,8 +594,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="189">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -369,6 +687,27 @@
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -442,6 +781,27 @@
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,13 +1133,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="140.83203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
@@ -787,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -801,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -815,12 +1177,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>400</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -829,13 +1191,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>600</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -843,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>601</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
-        <v>800</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -857,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>801</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -871,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -885,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2001</v>
+        <v>301</v>
       </c>
       <c r="C8" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -899,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>4001</v>
+        <v>401</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -913,13 +1275,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>6001</v>
+        <v>501</v>
       </c>
       <c r="C10" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -927,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8001</v>
+        <v>801</v>
       </c>
       <c r="C11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>1100</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -941,13 +1303,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>10001</v>
+        <v>1101</v>
       </c>
       <c r="C12" s="2">
-        <v>14000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>1400</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -955,13 +1317,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>14001</v>
+        <v>1401</v>
       </c>
       <c r="C13" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>1700</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -969,13 +1331,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>18001</v>
+        <v>1701</v>
       </c>
       <c r="C14" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>2000</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -983,13 +1345,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>32001</v>
+        <v>2001</v>
       </c>
       <c r="C15" s="2">
-        <v>36000</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
+        <v>3000</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -997,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>36001</v>
+        <v>3001</v>
       </c>
       <c r="C16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
+        <v>4000</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -1011,13 +1373,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>40001</v>
+        <v>4001</v>
       </c>
       <c r="C17" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>5000</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -1025,13 +1387,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>50001</v>
+        <v>5001</v>
       </c>
       <c r="C18" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>6000</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1039,13 +1401,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>60001</v>
+        <v>6001</v>
       </c>
       <c r="C19" s="2">
-        <v>70000</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
+        <v>7000</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -1053,13 +1415,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>70001</v>
+        <v>7001</v>
       </c>
       <c r="C20" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
+        <v>8000</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -1067,16 +1429,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>80001</v>
+        <v>8001</v>
       </c>
       <c r="C21" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15"/>
+        <v>9000</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1092,313 +1467,351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="128.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="7">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="7">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B4" s="7">
+        <v>51</v>
+      </c>
+      <c r="C4" s="7">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>76</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7">
+        <v>200</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>201</v>
+      </c>
+      <c r="C7" s="7">
+        <v>300</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>301</v>
+      </c>
+      <c r="C8" s="7">
+        <v>400</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>401</v>
+      </c>
+      <c r="C9" s="7">
+        <v>500</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>501</v>
+      </c>
+      <c r="C10" s="7">
+        <v>800</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>201</v>
-      </c>
-      <c r="C3" s="2">
-        <v>400</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>401</v>
-      </c>
-      <c r="C4" s="2">
-        <v>600</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>601</v>
-      </c>
-      <c r="C5" s="2">
-        <v>800</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B11" s="7">
         <v>801</v>
       </c>
-      <c r="C6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C11" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1401</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1700</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1701</v>
+      </c>
+      <c r="C14" s="7">
         <v>2000</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
         <v>2001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3001</v>
+      </c>
+      <c r="C16" s="7">
         <v>4000</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
         <v>4001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5001</v>
+      </c>
+      <c r="C18" s="7">
         <v>6000</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="D18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
         <v>6001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C19" s="7">
+        <v>7000</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7001</v>
+      </c>
+      <c r="C20" s="7">
         <v>8000</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="D20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
         <v>8001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C21" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>9001</v>
+      </c>
+      <c r="C22" s="7">
         <v>10000</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>18001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>32001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>36000</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>36001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>60001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>70000</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>70001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>80001</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15"/>
-    <row r="23" spans="1:4" ht="15"/>
+      <c r="D22" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1413,313 +1826,351 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="137.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="7">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="7">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B4" s="7">
+        <v>51</v>
+      </c>
+      <c r="C4" s="7">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>76</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7">
+        <v>200</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>201</v>
+      </c>
+      <c r="C7" s="7">
+        <v>300</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>301</v>
+      </c>
+      <c r="C8" s="7">
+        <v>400</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>401</v>
+      </c>
+      <c r="C9" s="7">
+        <v>500</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>501</v>
+      </c>
+      <c r="C10" s="7">
+        <v>800</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>201</v>
-      </c>
-      <c r="C3" s="2">
-        <v>400</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>401</v>
-      </c>
-      <c r="C4" s="2">
-        <v>600</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>601</v>
-      </c>
-      <c r="C5" s="2">
-        <v>800</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B11" s="7">
         <v>801</v>
       </c>
-      <c r="C6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C11" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1401</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1700</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1701</v>
+      </c>
+      <c r="C14" s="7">
         <v>2000</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="D14" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
         <v>2001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3001</v>
+      </c>
+      <c r="C16" s="7">
         <v>4000</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
         <v>4001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5001</v>
+      </c>
+      <c r="C18" s="7">
         <v>6000</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
         <v>6001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C19" s="7">
+        <v>7000</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7001</v>
+      </c>
+      <c r="C20" s="7">
         <v>8000</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
         <v>8001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C21" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>9001</v>
+      </c>
+      <c r="C22" s="7">
         <v>10000</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>18001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>32001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>36000</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>36001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>60001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>70000</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>70001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>80001</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15"/>
-    <row r="23" spans="1:4" ht="15"/>
+      <c r="D22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/KillDropItems.xlsx
+++ b/datas/shared/KillDropItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5720" yWindow="2620" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="grassLand" sheetId="4" r:id="rId1"/>
@@ -39,186 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:greenCrystal_1:2:40,dragonMaterials:rune_1:2:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:greenCrystal_1:3:40,dragonMaterials:rune_1:3:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:greenCrystal_1:4:40,dragonMaterials:rune_1:4:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:rune_2:1:25,dragonMaterials:greenSoul_2:1:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:greenCrystal_2:2:25,dragonMaterials:rune_2:2:25,dragonMaterials:greenSoul_2:2:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:greenCrystal_2:3:25,dragonMaterials:rune_2:3:25,dragonMaterials:greenSoul_2:3:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:greenCrystal_2:4:25,dragonMaterials:rune_2:4:25,dragonMaterials:greenSoul_2:4:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:rune_3:1:25,dragonMaterials:greenSoul_3:1:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:greenCrystal_3:2:25,dragonMaterials:rune_3:2:25,dragonMaterials:greenSoul_3:2:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:greenCrystal_3:3:25,dragonMaterials:rune_3:3:25,dragonMaterials:greenSoul_3:3:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:greenCrystal_3:4:25,dragonMaterials:rune_3:4:25,dragonMaterials:greenSoul_3:4:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:greenCrystal_4:1:25,dragonMaterials:rune_4:1:25,dragonMaterials:greenSoul_4:1:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:greenCrystal_4:2:25,dragonMaterials:rune_4:2:25,dragonMaterials:greenSoul_4:2:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:greenCrystal_4:3:25,dragonMaterials:rune_4:3:25,dragonMaterials:greenSoul_4:3:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:greenCrystal_4:4:25,dragonMaterials:rune_4:4:25,dragonMaterials:greenSoul_4:4:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:greenCrystal_1:1:40,dragonMaterials:rune_1:1:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:redCrystal_1:1:40,dragonMaterials:rune_1:1:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:redCrystal_1:2:40,dragonMaterials:rune_1:2:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:redCrystal_1:3:40,dragonMaterials:rune_1:3:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:redCrystal_1:4:40,dragonMaterials:rune_1:4:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:redCrystal_2:1:25,dragonMaterials:rune_2:1:25,dragonMaterials:redSoul_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:redCrystal_2:2:25,dragonMaterials:rune_2:2:25,dragonMaterials:redSoul_2:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:redCrystal_2:3:25,dragonMaterials:rune_2:3:25,dragonMaterials:redSoul_2:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:redCrystal_2:4:25,dragonMaterials:rune_2:4:25,dragonMaterials:redSoul_2:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:redCrystal_3:1:25,dragonMaterials:rune_3:1:25,dragonMaterials:redSoul_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:redCrystal_3:2:25,dragonMaterials:rune_3:2:25,dragonMaterials:redSoul_3:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:redCrystal_3:3:25,dragonMaterials:rune_3:3:25,dragonMaterials:redSoul_3:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:redCrystal_3:4:25,dragonMaterials:rune_3:4:25,dragonMaterials:redSoul_3:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:redCrystal_4:1:25,dragonMaterials:rune_4:1:25,dragonMaterials:redSoul_4:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:redCrystal_4:2:25,dragonMaterials:rune_4:2:25,dragonMaterials:redSoul_4:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:redCrystal_4:3:25,dragonMaterials:rune_4:3:25,dragonMaterials:redSoul_4:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:redCrystal_4:4:25,dragonMaterials:rune_4:4:25,dragonMaterials:redSoul_4:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:rune_1:1:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:blueCrystal_1:2:40,dragonMaterials:rune_1:2:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:blueCrystal_1:3:40,dragonMaterials:rune_1:3:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:blueCrystal_1:4:40,dragonMaterials:rune_1:4:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:rune_2:1:25,dragonMaterials:blueSoul_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:blueCrystal_2:2:25,dragonMaterials:rune_2:2:25,dragonMaterials:blueSoul_2:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:blueCrystal_2:3:25,dragonMaterials:rune_2:3:25,dragonMaterials:blueSoul_2:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:blueCrystal_2:4:25,dragonMaterials:rune_2:4:25,dragonMaterials:blueSoul_2:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:rune_3:1:25,dragonMaterials:blueSoul_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:blueCrystal_3:2:25,dragonMaterials:rune_3:2:25,dragonMaterials:blueSoul_3:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:blueCrystal_3:3:25,dragonMaterials:rune_3:3:25,dragonMaterials:blueSoul_3:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:blueCrystal_3:4:25,dragonMaterials:rune_3:4:25,dragonMaterials:blueSoul_3:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:blueCrystal_4:1:25,dragonMaterials:rune_4:1:25,dragonMaterials:blueSoul_4:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:blueCrystal_4:2:25,dragonMaterials:rune_4:2:25,dragonMaterials:blueSoul_4:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:blueCrystal_4:3:25,dragonMaterials:rune_4:3:25,dragonMaterials:blueSoul_4:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:blueCrystal_4:4:25,dragonMaterials:rune_4:4:25,dragonMaterials:blueSoul_4:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:greenCrystal_3:5:25,dragonMaterials:rune_3:5:25,dragonMaterials:greenSoul_3:5:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:greenCrystal_4:5:25,dragonMaterials:rune_4:5:25,dragonMaterials:greenSoul_4:5:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:greenCrystal_4:6:25,dragonMaterials:rune_4:6:25,dragonMaterials:greenSoul_4:6:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:greenCrystal_4:8:25,dragonMaterials:rune_4:8:25,dragonMaterials:greenSoul_4:8:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:greenCrystal_4:10:25,dragonMaterials:rune_4:10:25,dragonMaterials:greenSoul_4:10:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
   </si>
   <si>
@@ -231,34 +51,193 @@
     <t>STR_rewards</t>
   </si>
   <si>
-    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:redCrystal_3:5:25,dragonMaterials:rune_3:5:25,dragonMaterials:redSoul_3:5:26</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:redCrystal_4:5:25,dragonMaterials:rune_4:5:25,dragonMaterials:redSoul_4:5:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:redCrystal_4:6:25,dragonMaterials:rune_4:6:25,dragonMaterials:redSoul_4:6:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:redCrystal_4:8:25,dragonMaterials:rune_4:8:25,dragonMaterials:redSoul_4:8:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:redCrystal_4:10:25,dragonMaterials:rune_4:10:25,dragonMaterials:redSoul_4:10:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:blueCrystal_3:5:25,dragonMaterials:rune_3:5:25,dragonMaterials:blueSoul_3:5:26</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:blueCrystal_4:5:25,dragonMaterials:rune_4:5:25,dragonMaterials:blueSoul_4:5:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:blueCrystal_4:6:25,dragonMaterials:rune_4:6:25,dragonMaterials:blueSoul_4:6:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:blueCrystal_4:8:25,dragonMaterials:rune_4:8:25,dragonMaterials:blueSoul_4:8:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:blueCrystal_4:10:25,dragonMaterials:rune_4:10:25,dragonMaterials:blueSoul_4:10:25</t>
+    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:runes_1:1:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:blueCrystal_1:2:40,dragonMaterials:runes_1:2:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:blueCrystal_1:3:40,dragonMaterials:runes_1:3:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:blueCrystal_1:4:40,dragonMaterials:runes_1:4:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:runes_2:1:25,dragonMaterials:blueSoul_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:blueCrystal_2:2:25,dragonMaterials:runes_2:2:25,dragonMaterials:blueSoul_2:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:blueCrystal_2:3:25,dragonMaterials:runes_2:3:25,dragonMaterials:blueSoul_2:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:blueCrystal_2:4:25,dragonMaterials:runes_2:4:25,dragonMaterials:blueSoul_2:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:runes_3:1:25,dragonMaterials:blueSoul_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:blueCrystal_3:2:25,dragonMaterials:runes_3:2:25,dragonMaterials:blueSoul_3:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:blueCrystal_3:3:25,dragonMaterials:runes_3:3:25,dragonMaterials:blueSoul_3:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:blueCrystal_3:4:25,dragonMaterials:runes_3:4:25,dragonMaterials:blueSoul_3:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:blueCrystal_3:5:25,dragonMaterials:runes_3:5:25,dragonMaterials:blueSoul_3:5:26</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:blueCrystal_4:1:25,dragonMaterials:runes_4:1:25,dragonMaterials:blueSoul_4:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:blueCrystal_4:2:25,dragonMaterials:runes_4:2:25,dragonMaterials:blueSoul_4:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:blueCrystal_4:3:25,dragonMaterials:runes_4:3:25,dragonMaterials:blueSoul_4:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:blueCrystal_4:4:25,dragonMaterials:runes_4:4:25,dragonMaterials:blueSoul_4:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:blueCrystal_4:5:25,dragonMaterials:runes_4:5:25,dragonMaterials:blueSoul_4:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:blueCrystal_4:6:25,dragonMaterials:runes_4:6:25,dragonMaterials:blueSoul_4:6:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:blueCrystal_4:8:25,dragonMaterials:runes_4:8:25,dragonMaterials:blueSoul_4:8:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:blueCrystal_4:10:25,dragonMaterials:runes_4:10:25,dragonMaterials:blueSoul_4:10:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:greenCrystal_1:1:40,dragonMaterials:runes_1:1:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:greenCrystal_1:2:40,dragonMaterials:runes_1:2:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:greenCrystal_1:3:40,dragonMaterials:runes_1:3:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:greenCrystal_1:4:40,dragonMaterials:runes_1:4:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:runes_2:1:25,dragonMaterials:greenSoul_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:greenCrystal_2:2:25,dragonMaterials:runes_2:2:25,dragonMaterials:greenSoul_2:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:greenCrystal_2:3:25,dragonMaterials:runes_2:3:25,dragonMaterials:greenSoul_2:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:greenCrystal_2:4:25,dragonMaterials:runes_2:4:25,dragonMaterials:greenSoul_2:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:runes_3:1:25,dragonMaterials:greenSoul_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:greenCrystal_3:2:25,dragonMaterials:runes_3:2:25,dragonMaterials:greenSoul_3:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:greenCrystal_3:3:25,dragonMaterials:runes_3:3:25,dragonMaterials:greenSoul_3:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:greenCrystal_3:4:25,dragonMaterials:runes_3:4:25,dragonMaterials:greenSoul_3:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:greenCrystal_3:5:25,dragonMaterials:runes_3:5:25,dragonMaterials:greenSoul_3:5:26</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:greenCrystal_4:1:25,dragonMaterials:runes_4:1:25,dragonMaterials:greenSoul_4:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:greenCrystal_4:2:25,dragonMaterials:runes_4:2:25,dragonMaterials:greenSoul_4:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:greenCrystal_4:3:25,dragonMaterials:runes_4:3:25,dragonMaterials:greenSoul_4:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:greenCrystal_4:4:25,dragonMaterials:runes_4:4:25,dragonMaterials:greenSoul_4:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:greenCrystal_4:5:25,dragonMaterials:runes_4:5:25,dragonMaterials:greenSoul_4:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:greenCrystal_4:6:25,dragonMaterials:runes_4:6:25,dragonMaterials:greenSoul_4:6:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:greenCrystal_4:8:25,dragonMaterials:runes_4:8:25,dragonMaterials:greenSoul_4:8:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:greenCrystal_4:10:25,dragonMaterials:runes_4:10:25,dragonMaterials:greenSoul_4:10:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:redCrystal_1:1:40,dragonMaterials:runes_1:1:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:redCrystal_1:2:40,dragonMaterials:runes_1:2:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:redCrystal_1:3:40,dragonMaterials:runes_1:3:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:redCrystal_1:4:40,dragonMaterials:runes_1:4:30</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:redCrystal_2:1:25,dragonMaterials:runes_2:1:25,dragonMaterials:redSoul_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:redCrystal_2:2:25,dragonMaterials:runes_2:2:25,dragonMaterials:redSoul_2:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:redCrystal_2:3:25,dragonMaterials:runes_2:3:25,dragonMaterials:redSoul_2:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:redCrystal_2:4:25,dragonMaterials:runes_2:4:25,dragonMaterials:redSoul_2:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:redCrystal_3:1:25,dragonMaterials:runes_3:1:25,dragonMaterials:redSoul_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:redCrystal_3:2:25,dragonMaterials:runes_3:2:25,dragonMaterials:redSoul_3:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:redCrystal_3:3:25,dragonMaterials:runes_3:3:25,dragonMaterials:redSoul_3:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:redCrystal_3:4:25,dragonMaterials:runes_3:4:25,dragonMaterials:redSoul_3:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:redCrystal_3:5:25,dragonMaterials:runes_3:5:25,dragonMaterials:redSoul_3:5:26</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:redCrystal_4:1:25,dragonMaterials:runes_4:1:25,dragonMaterials:redSoul_4:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:redCrystal_4:2:25,dragonMaterials:runes_4:2:25,dragonMaterials:redSoul_4:2:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:redCrystal_4:3:25,dragonMaterials:runes_4:3:25,dragonMaterials:redSoul_4:3:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:redCrystal_4:4:25,dragonMaterials:runes_4:4:25,dragonMaterials:redSoul_4:4:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:redCrystal_4:5:25,dragonMaterials:runes_4:5:25,dragonMaterials:redSoul_4:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:redCrystal_4:6:25,dragonMaterials:runes_4:6:25,dragonMaterials:redSoul_4:6:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:redCrystal_4:8:25,dragonMaterials:runes_4:8:25,dragonMaterials:redSoul_4:8:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:redCrystal_4:10:25,dragonMaterials:runes_4:10:25,dragonMaterials:redSoul_4:10:25</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1183,7 +1162,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1197,7 +1176,7 @@
         <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1211,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1225,7 +1204,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1239,7 +1218,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1253,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1267,7 +1246,7 @@
         <v>500</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1281,7 +1260,7 @@
         <v>800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1295,7 +1274,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -1309,7 +1288,7 @@
         <v>1400</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -1323,7 +1302,7 @@
         <v>1700</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -1337,7 +1316,7 @@
         <v>2000</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -1351,7 +1330,7 @@
         <v>3000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -1365,7 +1344,7 @@
         <v>4000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -1379,7 +1358,7 @@
         <v>5000</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -1393,7 +1372,7 @@
         <v>6000</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1407,7 +1386,7 @@
         <v>7000</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -1421,7 +1400,7 @@
         <v>8000</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -1435,7 +1414,7 @@
         <v>9000</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -1449,7 +1428,7 @@
         <v>10000</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15"/>
@@ -1470,7 +1449,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1482,16 +1461,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1505,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1519,7 +1498,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1533,7 +1512,7 @@
         <v>75</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1547,7 +1526,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1561,7 +1540,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1575,7 +1554,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1589,7 +1568,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1603,7 +1582,7 @@
         <v>500</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1617,7 +1596,7 @@
         <v>800</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1631,7 +1610,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -1645,7 +1624,7 @@
         <v>1400</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -1659,7 +1638,7 @@
         <v>1700</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -1673,7 +1652,7 @@
         <v>2000</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -1687,7 +1666,7 @@
         <v>3000</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -1701,7 +1680,7 @@
         <v>4000</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -1715,7 +1694,7 @@
         <v>5000</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -1729,7 +1708,7 @@
         <v>6000</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1743,7 +1722,7 @@
         <v>7000</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -1757,7 +1736,7 @@
         <v>8000</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -1771,7 +1750,7 @@
         <v>9000</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -1785,7 +1764,7 @@
         <v>10000</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -1829,7 +1808,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1841,16 +1820,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1864,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1878,7 +1857,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1892,7 +1871,7 @@
         <v>75</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1906,7 +1885,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1920,7 +1899,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1934,7 +1913,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1948,7 +1927,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1962,7 +1941,7 @@
         <v>500</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1976,7 +1955,7 @@
         <v>800</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1990,7 +1969,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -2004,7 +1983,7 @@
         <v>1400</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -2018,7 +1997,7 @@
         <v>1700</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -2032,7 +2011,7 @@
         <v>2000</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -2046,7 +2025,7 @@
         <v>3000</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -2060,7 +2039,7 @@
         <v>4000</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -2074,7 +2053,7 @@
         <v>5000</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -2088,7 +2067,7 @@
         <v>6000</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -2102,7 +2081,7 @@
         <v>7000</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -2116,7 +2095,7 @@
         <v>8000</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -2130,7 +2109,7 @@
         <v>9000</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -2144,7 +2123,7 @@
         <v>10000</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">

--- a/datas/shared/KillDropItems.xlsx
+++ b/datas/shared/KillDropItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="2620" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1040" yWindow="1720" windowWidth="51140" windowHeight="18540" tabRatio="323"/>
   </bookViews>
   <sheets>
     <sheet name="grassLand" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,212 +39,321 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INT_level</t>
-  </si>
-  <si>
-    <t>INT_killScoreMin</t>
-  </si>
-  <si>
-    <t>INT_killScoreMax</t>
-  </si>
-  <si>
-    <t>STR_rewards</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:runes_1:1:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:blueCrystal_1:2:40,dragonMaterials:runes_1:2:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:blueCrystal_1:3:40,dragonMaterials:runes_1:3:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:blueCrystal_1:4:40,dragonMaterials:runes_1:4:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:runes_2:1:25,dragonMaterials:blueSoul_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:blueCrystal_2:2:25,dragonMaterials:runes_2:2:25,dragonMaterials:blueSoul_2:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:blueCrystal_2:3:25,dragonMaterials:runes_2:3:25,dragonMaterials:blueSoul_2:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:blueCrystal_2:4:25,dragonMaterials:runes_2:4:25,dragonMaterials:blueSoul_2:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:runes_3:1:25,dragonMaterials:blueSoul_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:blueCrystal_3:2:25,dragonMaterials:runes_3:2:25,dragonMaterials:blueSoul_3:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:blueCrystal_3:3:25,dragonMaterials:runes_3:3:25,dragonMaterials:blueSoul_3:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:blueCrystal_3:4:25,dragonMaterials:runes_3:4:25,dragonMaterials:blueSoul_3:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:blueCrystal_3:5:25,dragonMaterials:runes_3:5:25,dragonMaterials:blueSoul_3:5:26</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:blueCrystal_4:1:25,dragonMaterials:runes_4:1:25,dragonMaterials:blueSoul_4:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:blueCrystal_4:2:25,dragonMaterials:runes_4:2:25,dragonMaterials:blueSoul_4:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:blueCrystal_4:3:25,dragonMaterials:runes_4:3:25,dragonMaterials:blueSoul_4:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:blueCrystal_4:4:25,dragonMaterials:runes_4:4:25,dragonMaterials:blueSoul_4:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:blueCrystal_4:5:25,dragonMaterials:runes_4:5:25,dragonMaterials:blueSoul_4:5:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:blueCrystal_4:6:25,dragonMaterials:runes_4:6:25,dragonMaterials:blueSoul_4:6:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:blueCrystal_4:8:25,dragonMaterials:runes_4:8:25,dragonMaterials:blueSoul_4:8:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:blueCrystal_4:10:25,dragonMaterials:runes_4:10:25,dragonMaterials:blueSoul_4:10:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:greenCrystal_1:1:40,dragonMaterials:runes_1:1:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:greenCrystal_1:2:40,dragonMaterials:runes_1:2:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:greenCrystal_1:3:40,dragonMaterials:runes_1:3:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:greenCrystal_1:4:40,dragonMaterials:runes_1:4:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:runes_2:1:25,dragonMaterials:greenSoul_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:greenCrystal_2:2:25,dragonMaterials:runes_2:2:25,dragonMaterials:greenSoul_2:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:greenCrystal_2:3:25,dragonMaterials:runes_2:3:25,dragonMaterials:greenSoul_2:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:greenCrystal_2:4:25,dragonMaterials:runes_2:4:25,dragonMaterials:greenSoul_2:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:runes_3:1:25,dragonMaterials:greenSoul_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:greenCrystal_3:2:25,dragonMaterials:runes_3:2:25,dragonMaterials:greenSoul_3:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:greenCrystal_3:3:25,dragonMaterials:runes_3:3:25,dragonMaterials:greenSoul_3:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:greenCrystal_3:4:25,dragonMaterials:runes_3:4:25,dragonMaterials:greenSoul_3:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:greenCrystal_3:5:25,dragonMaterials:runes_3:5:25,dragonMaterials:greenSoul_3:5:26</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:greenCrystal_4:1:25,dragonMaterials:runes_4:1:25,dragonMaterials:greenSoul_4:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:greenCrystal_4:2:25,dragonMaterials:runes_4:2:25,dragonMaterials:greenSoul_4:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:greenCrystal_4:3:25,dragonMaterials:runes_4:3:25,dragonMaterials:greenSoul_4:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:greenCrystal_4:4:25,dragonMaterials:runes_4:4:25,dragonMaterials:greenSoul_4:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:greenCrystal_4:5:25,dragonMaterials:runes_4:5:25,dragonMaterials:greenSoul_4:5:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:greenCrystal_4:6:25,dragonMaterials:runes_4:6:25,dragonMaterials:greenSoul_4:6:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:greenCrystal_4:8:25,dragonMaterials:runes_4:8:25,dragonMaterials:greenSoul_4:8:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:greenCrystal_4:10:25,dragonMaterials:runes_4:10:25,dragonMaterials:greenSoul_4:10:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:30,dragonMaterials:redCrystal_1:1:40,dragonMaterials:runes_1:1:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:2:30,dragonMaterials:redCrystal_1:2:40,dragonMaterials:runes_1:2:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3:30,dragonMaterials:redCrystal_1:3:40,dragonMaterials:runes_1:3:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:4:30,dragonMaterials:redCrystal_1:4:40,dragonMaterials:runes_1:4:30</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:redCrystal_2:1:25,dragonMaterials:runes_2:1:25,dragonMaterials:redSoul_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:2:25,dragonMaterials:redCrystal_2:2:25,dragonMaterials:runes_2:2:25,dragonMaterials:redSoul_2:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3:25,dragonMaterials:redCrystal_2:3:25,dragonMaterials:runes_2:3:25,dragonMaterials:redSoul_2:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:4:25,dragonMaterials:redCrystal_2:4:25,dragonMaterials:runes_2:4:25,dragonMaterials:redSoul_2:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:redCrystal_3:1:25,dragonMaterials:runes_3:1:25,dragonMaterials:redSoul_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:2:25,dragonMaterials:redCrystal_3:2:25,dragonMaterials:runes_3:2:25,dragonMaterials:redSoul_3:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3:25,dragonMaterials:redCrystal_3:3:25,dragonMaterials:runes_3:3:25,dragonMaterials:redSoul_3:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:4:25,dragonMaterials:redCrystal_3:4:25,dragonMaterials:runes_3:4:25,dragonMaterials:redSoul_3:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:25,dragonMaterials:redCrystal_3:5:25,dragonMaterials:runes_3:5:25,dragonMaterials:redSoul_3:5:26</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:25,dragonMaterials:redCrystal_4:1:25,dragonMaterials:runes_4:1:25,dragonMaterials:redSoul_4:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:2:25,dragonMaterials:redCrystal_4:2:25,dragonMaterials:runes_4:2:25,dragonMaterials:redSoul_4:2:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3:25,dragonMaterials:redCrystal_4:3:25,dragonMaterials:runes_4:3:25,dragonMaterials:redSoul_4:3:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:4:25,dragonMaterials:redCrystal_4:4:25,dragonMaterials:runes_4:4:25,dragonMaterials:redSoul_4:4:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:5:25,dragonMaterials:redCrystal_4:5:25,dragonMaterials:runes_4:5:25,dragonMaterials:redSoul_4:5:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:6:25,dragonMaterials:redCrystal_4:6:25,dragonMaterials:runes_4:6:25,dragonMaterials:redSoul_4:6:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:8:25,dragonMaterials:redCrystal_4:8:25,dragonMaterials:runes_4:8:25,dragonMaterials:redSoul_4:8:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:10:25,dragonMaterials:redCrystal_4:10:25,dragonMaterials:runes_4:10:25,dragonMaterials:redSoul_4:10:25</t>
+    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:greenCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:28,dragonMaterials:greenCrystal_1:1:37,dragonMaterials:runes_1:1:25,dragonMaterials:ingo_2:1:3,dragonMaterials:greenSoul_2:1:1,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:25,dragonMaterials:greenCrystal_1:1:33,dragonMaterials:runes_1:1:22,dragonMaterials:ingo_2:1:6,dragonMaterials:greenSoul_2:1:2,dragonMaterials:greenCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:22,dragonMaterials:greenCrystal_1:1:29,dragonMaterials:runes_1:1:20,dragonMaterials:ingo_2:1:8,dragonMaterials:greenSoul_2:1:3,dragonMaterials:greenCrystal_2:1:11,dragonMaterials:runes_2:1:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:18,dragonMaterials:greenCrystal_1:1:25,dragonMaterials:runes_1:1:17,dragonMaterials:ingo_2:1:11,dragonMaterials:greenSoul_2:1:4,dragonMaterials:greenCrystal_2:1:15,dragonMaterials:runes_2:1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:16,dragonMaterials:greenCrystal_1:1:21,dragonMaterials:runes_1:1:14,dragonMaterials:ingo_2:1:14,dragonMaterials:greenSoul_2:1:5,dragonMaterials:greenCrystal_2:1:18,dragonMaterials:runes_2:1:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:12,dragonMaterials:greenCrystal_1:1:16,dragonMaterials:runes_1:1:12,dragonMaterials:ingo_2:1:17,dragonMaterials:greenSoul_2:1:6,dragonMaterials:greenCrystal_2:1:22,dragonMaterials:runes_2:1:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:9,dragonMaterials:greenCrystal_1:1:12,dragonMaterials:runes_1:1:8,dragonMaterials:ingo_2:1:20,dragonMaterials:greenSoul_2:1:8,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:runes_2:1:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:6,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:runes_1:1:6,dragonMaterials:ingo_2:1:22,dragonMaterials:greenSoul_2:1:9,dragonMaterials:greenCrystal_2:1:29,dragonMaterials:runes_2:1:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:3,dragonMaterials:greenCrystal_1:1:4,dragonMaterials:runes_1:1:3,dragonMaterials:ingo_2:1:25,dragonMaterials:greenSoul_2:1:10,dragonMaterials:greenCrystal_2:1:33,dragonMaterials:runes_2:1:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:28,dragonMaterials:greenSoul_2:1:11,dragonMaterials:greenCrystal_2:1:36,dragonMaterials:runes_2:1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:28,dragonMaterials:greenSoul_3:1:11,dragonMaterials:greenCrystal_3:1:36,dragonMaterials:runes_3:1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:greenSoul_3:1:10,dragonMaterials:greenCrystal_3:1:32,dragonMaterials:runes_3:1:22,dragonMaterials:ingo_4:1:3,dragonMaterials:greenSoul_4:1:1,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:22,dragonMaterials:greenSoul_3:1:9,dragonMaterials:greenCrystal_3:1:29,dragonMaterials:runes_3:1:20,dragonMaterials:ingo_4:1:5,dragonMaterials:greenSoul_4:1:2,dragonMaterials:greenCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:20,dragonMaterials:greenSoul_3:1:8,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:runes_3:1:18,dragonMaterials:ingo_4:1:8,dragonMaterials:greenSoul_4:1:3,dragonMaterials:greenCrystal_4:1:11,dragonMaterials:runes_4:1:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:17,dragonMaterials:greenSoul_3:1:7,dragonMaterials:greenCrystal_3:1:22,dragonMaterials:runes_3:1:15,dragonMaterials:ingo_4:1:11,dragonMaterials:greenSoul_4:1:4,dragonMaterials:greenCrystal_4:1:14,dragonMaterials:runes_4:1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:14,dragonMaterials:greenSoul_3:1:6,dragonMaterials:greenCrystal_3:1:18,dragonMaterials:runes_3:1:12,dragonMaterials:ingo_4:1:14,dragonMaterials:greenSoul_4:1:5,dragonMaterials:greenCrystal_4:1:19,dragonMaterials:runes_4:1:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:11,dragonMaterials:greenSoul_3:1:4,dragonMaterials:greenCrystal_3:1:14,dragonMaterials:runes_3:1:10,dragonMaterials:ingo_4:1:17,dragonMaterials:greenSoul_4:1:7,dragonMaterials:greenCrystal_4:1:22,dragonMaterials:runes_4:1:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:8,dragonMaterials:greenSoul_3:1:3,dragonMaterials:greenCrystal_3:1:11,dragonMaterials:runes_3:1:8,dragonMaterials:ingo_4:1:20,dragonMaterials:greenSoul_4:1:8,dragonMaterials:greenCrystal_4:1:25,dragonMaterials:runes_4:1:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:6,dragonMaterials:greenSoul_3:1:2,dragonMaterials:greenCrystal_3:1:7,dragonMaterials:runes_3:1:5,dragonMaterials:ingo_4:1:22,dragonMaterials:greenSoul_4:1:9,dragonMaterials:greenCrystal_4:1:29,dragonMaterials:runes_4:1:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:3,dragonMaterials:greenSoul_3:1:1,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:runes_3:1:2,dragonMaterials:ingo_4:1:25,dragonMaterials:greenSoul_4:1:10,dragonMaterials:greenCrystal_4:1:33,dragonMaterials:runes_4:1:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:greenSoul_2:1:10,dragonMaterials:greenCrystal_2:1:32,dragonMaterials:runes_2:1:22,dragonMaterials:ingo_3:1:3,dragonMaterials:greenSoul_3:1:1,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:22,dragonMaterials:greenSoul_2:1:9,dragonMaterials:greenCrystal_2:1:29,dragonMaterials:runes_2:1:20,dragonMaterials:ingo_3:1:5,dragonMaterials:greenSoul_3:1:2,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:20,dragonMaterials:greenSoul_2:1:8,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:runes_2:1:18,dragonMaterials:ingo_3:1:8,dragonMaterials:greenSoul_3:1:3,dragonMaterials:greenCrystal_3:1:11,dragonMaterials:runes_3:1:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:17,dragonMaterials:greenSoul_2:1:7,dragonMaterials:greenCrystal_2:1:22,dragonMaterials:runes_2:1:15,dragonMaterials:ingo_3:1:11,dragonMaterials:greenSoul_3:1:4,dragonMaterials:greenCrystal_3:1:14,dragonMaterials:runes_3:1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:14,dragonMaterials:greenSoul_2:1:6,dragonMaterials:greenCrystal_2:1:18,dragonMaterials:runes_2:1:12,dragonMaterials:ingo_3:1:14,dragonMaterials:greenSoul_3:1:5,dragonMaterials:greenCrystal_3:1:19,dragonMaterials:runes_3:1:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:11,dragonMaterials:greenSoul_2:1:4,dragonMaterials:greenCrystal_2:1:14,dragonMaterials:runes_2:1:10,dragonMaterials:ingo_3:1:17,dragonMaterials:greenSoul_3:1:7,dragonMaterials:greenCrystal_3:1:22,dragonMaterials:runes_3:1:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:8,dragonMaterials:greenSoul_2:1:3,dragonMaterials:greenCrystal_2:1:11,dragonMaterials:runes_2:1:8,dragonMaterials:ingo_3:1:20,dragonMaterials:greenSoul_3:1:8,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:runes_3:1:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:6,dragonMaterials:greenSoul_2:1:2,dragonMaterials:greenCrystal_2:1:7,dragonMaterials:runes_2:1:5,dragonMaterials:ingo_3:1:22,dragonMaterials:greenSoul_3:1:9,dragonMaterials:greenCrystal_3:1:29,dragonMaterials:runes_3:1:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:3,dragonMaterials:greenSoul_2:1:1,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:runes_2:1:2,dragonMaterials:ingo_3:1:25,dragonMaterials:greenSoul_3:1:10,dragonMaterials:greenCrystal_3:1:33,dragonMaterials:runes_3:1:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:28,dragonMaterials:greenSoul_4:1:11,dragonMaterials:greenCrystal_4:1:36,dragonMaterials:runes_4:1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:redCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:28,dragonMaterials:redCrystal_1:1:37,dragonMaterials:runes_1:1:25,dragonMaterials:ingo_2:1:3,dragonMaterials:redSoul_2:1:1,dragonMaterials:redCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:25,dragonMaterials:redCrystal_1:1:33,dragonMaterials:runes_1:1:22,dragonMaterials:ingo_2:1:6,dragonMaterials:redSoul_2:1:2,dragonMaterials:redCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:22,dragonMaterials:redCrystal_1:1:29,dragonMaterials:runes_1:1:20,dragonMaterials:ingo_2:1:8,dragonMaterials:redSoul_2:1:3,dragonMaterials:redCrystal_2:1:11,dragonMaterials:runes_2:1:7</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:18,dragonMaterials:redCrystal_1:1:25,dragonMaterials:runes_1:1:17,dragonMaterials:ingo_2:1:11,dragonMaterials:redSoul_2:1:4,dragonMaterials:redCrystal_2:1:15,dragonMaterials:runes_2:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:16,dragonMaterials:redCrystal_1:1:21,dragonMaterials:runes_1:1:14,dragonMaterials:ingo_2:1:14,dragonMaterials:redSoul_2:1:5,dragonMaterials:redCrystal_2:1:18,dragonMaterials:runes_2:1:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:12,dragonMaterials:redCrystal_1:1:16,dragonMaterials:runes_1:1:12,dragonMaterials:ingo_2:1:17,dragonMaterials:redSoul_2:1:6,dragonMaterials:redCrystal_2:1:22,dragonMaterials:runes_2:1:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:9,dragonMaterials:redCrystal_1:1:12,dragonMaterials:runes_1:1:8,dragonMaterials:ingo_2:1:20,dragonMaterials:redSoul_2:1:8,dragonMaterials:redCrystal_2:1:25,dragonMaterials:runes_2:1:18</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:6,dragonMaterials:redCrystal_1:1:8,dragonMaterials:runes_1:1:6,dragonMaterials:ingo_2:1:22,dragonMaterials:redSoul_2:1:9,dragonMaterials:redCrystal_2:1:29,dragonMaterials:runes_2:1:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:3,dragonMaterials:redCrystal_1:1:4,dragonMaterials:runes_1:1:3,dragonMaterials:ingo_2:1:25,dragonMaterials:redSoul_2:1:10,dragonMaterials:redCrystal_2:1:33,dragonMaterials:runes_2:1:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:28,dragonMaterials:redSoul_2:1:11,dragonMaterials:redCrystal_2:1:36,dragonMaterials:runes_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:redSoul_2:1:10,dragonMaterials:redCrystal_2:1:32,dragonMaterials:runes_2:1:22,dragonMaterials:ingo_3:1:3,dragonMaterials:redSoul_3:1:1,dragonMaterials:redCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:22,dragonMaterials:redSoul_2:1:9,dragonMaterials:redCrystal_2:1:29,dragonMaterials:runes_2:1:20,dragonMaterials:ingo_3:1:5,dragonMaterials:redSoul_3:1:2,dragonMaterials:redCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:20,dragonMaterials:redSoul_2:1:8,dragonMaterials:redCrystal_2:1:25,dragonMaterials:runes_2:1:18,dragonMaterials:ingo_3:1:8,dragonMaterials:redSoul_3:1:3,dragonMaterials:redCrystal_3:1:11,dragonMaterials:runes_3:1:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:17,dragonMaterials:redSoul_2:1:7,dragonMaterials:redCrystal_2:1:22,dragonMaterials:runes_2:1:15,dragonMaterials:ingo_3:1:11,dragonMaterials:redSoul_3:1:4,dragonMaterials:redCrystal_3:1:14,dragonMaterials:runes_3:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:14,dragonMaterials:redSoul_2:1:6,dragonMaterials:redCrystal_2:1:18,dragonMaterials:runes_2:1:12,dragonMaterials:ingo_3:1:14,dragonMaterials:redSoul_3:1:5,dragonMaterials:redCrystal_3:1:19,dragonMaterials:runes_3:1:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:11,dragonMaterials:redSoul_2:1:4,dragonMaterials:redCrystal_2:1:14,dragonMaterials:runes_2:1:10,dragonMaterials:ingo_3:1:17,dragonMaterials:redSoul_3:1:7,dragonMaterials:redCrystal_3:1:22,dragonMaterials:runes_3:1:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:8,dragonMaterials:redSoul_2:1:3,dragonMaterials:redCrystal_2:1:11,dragonMaterials:runes_2:1:8,dragonMaterials:ingo_3:1:20,dragonMaterials:redSoul_3:1:8,dragonMaterials:redCrystal_3:1:25,dragonMaterials:runes_3:1:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:6,dragonMaterials:redSoul_2:1:2,dragonMaterials:redCrystal_2:1:7,dragonMaterials:runes_2:1:5,dragonMaterials:ingo_3:1:22,dragonMaterials:redSoul_3:1:9,dragonMaterials:redCrystal_3:1:29,dragonMaterials:runes_3:1:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:3,dragonMaterials:redSoul_2:1:1,dragonMaterials:redCrystal_2:1:4,dragonMaterials:runes_2:1:2,dragonMaterials:ingo_3:1:25,dragonMaterials:redSoul_3:1:10,dragonMaterials:redCrystal_3:1:33,dragonMaterials:runes_3:1:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:28,dragonMaterials:redSoul_3:1:11,dragonMaterials:redCrystal_3:1:36,dragonMaterials:runes_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:redSoul_3:1:10,dragonMaterials:redCrystal_3:1:32,dragonMaterials:runes_3:1:22,dragonMaterials:ingo_4:1:3,dragonMaterials:redSoul_4:1:1,dragonMaterials:redCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:22,dragonMaterials:redSoul_3:1:9,dragonMaterials:redCrystal_3:1:29,dragonMaterials:runes_3:1:20,dragonMaterials:ingo_4:1:5,dragonMaterials:redSoul_4:1:2,dragonMaterials:redCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:20,dragonMaterials:redSoul_3:1:8,dragonMaterials:redCrystal_3:1:25,dragonMaterials:runes_3:1:18,dragonMaterials:ingo_4:1:8,dragonMaterials:redSoul_4:1:3,dragonMaterials:redCrystal_4:1:11,dragonMaterials:runes_4:1:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:17,dragonMaterials:redSoul_3:1:7,dragonMaterials:redCrystal_3:1:22,dragonMaterials:runes_3:1:15,dragonMaterials:ingo_4:1:11,dragonMaterials:redSoul_4:1:4,dragonMaterials:redCrystal_4:1:14,dragonMaterials:runes_4:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:14,dragonMaterials:redSoul_3:1:6,dragonMaterials:redCrystal_3:1:18,dragonMaterials:runes_3:1:12,dragonMaterials:ingo_4:1:14,dragonMaterials:redSoul_4:1:5,dragonMaterials:redCrystal_4:1:19,dragonMaterials:runes_4:1:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:11,dragonMaterials:redSoul_3:1:4,dragonMaterials:redCrystal_3:1:14,dragonMaterials:runes_3:1:10,dragonMaterials:ingo_4:1:17,dragonMaterials:redSoul_4:1:7,dragonMaterials:redCrystal_4:1:22,dragonMaterials:runes_4:1:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:8,dragonMaterials:redSoul_3:1:3,dragonMaterials:redCrystal_3:1:11,dragonMaterials:runes_3:1:8,dragonMaterials:ingo_4:1:20,dragonMaterials:redSoul_4:1:8,dragonMaterials:redCrystal_4:1:25,dragonMaterials:runes_4:1:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:6,dragonMaterials:redSoul_3:1:2,dragonMaterials:redCrystal_3:1:7,dragonMaterials:runes_3:1:5,dragonMaterials:ingo_4:1:22,dragonMaterials:redSoul_4:1:9,dragonMaterials:redCrystal_4:1:29,dragonMaterials:runes_4:1:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:3,dragonMaterials:redSoul_3:1:1,dragonMaterials:redCrystal_3:1:4,dragonMaterials:runes_3:1:2,dragonMaterials:ingo_4:1:25,dragonMaterials:redSoul_4:1:10,dragonMaterials:redCrystal_4:1:33,dragonMaterials:runes_4:1:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:28,dragonMaterials:redSoul_4:1:11,dragonMaterials:redCrystal_4:1:36,dragonMaterials:runes_4:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:28,dragonMaterials:blueCrystal_1:1:37,dragonMaterials:runes_1:1:25,dragonMaterials:ingo_2:1:3,dragonMaterials:blueSoul_2:1:1,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:25,dragonMaterials:blueCrystal_1:1:33,dragonMaterials:runes_1:1:22,dragonMaterials:ingo_2:1:6,dragonMaterials:blueSoul_2:1:2,dragonMaterials:blueCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:22,dragonMaterials:blueCrystal_1:1:29,dragonMaterials:runes_1:1:20,dragonMaterials:ingo_2:1:8,dragonMaterials:blueSoul_2:1:3,dragonMaterials:blueCrystal_2:1:11,dragonMaterials:runes_2:1:7</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:18,dragonMaterials:blueCrystal_1:1:25,dragonMaterials:runes_1:1:17,dragonMaterials:ingo_2:1:11,dragonMaterials:blueSoul_2:1:4,dragonMaterials:blueCrystal_2:1:15,dragonMaterials:runes_2:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:16,dragonMaterials:blueCrystal_1:1:21,dragonMaterials:runes_1:1:14,dragonMaterials:ingo_2:1:14,dragonMaterials:blueSoul_2:1:5,dragonMaterials:blueCrystal_2:1:18,dragonMaterials:runes_2:1:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:12,dragonMaterials:blueCrystal_1:1:16,dragonMaterials:runes_1:1:12,dragonMaterials:ingo_2:1:17,dragonMaterials:blueSoul_2:1:6,dragonMaterials:blueCrystal_2:1:22,dragonMaterials:runes_2:1:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:9,dragonMaterials:blueCrystal_1:1:12,dragonMaterials:runes_1:1:8,dragonMaterials:ingo_2:1:20,dragonMaterials:blueSoul_2:1:8,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:runes_2:1:18</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:6,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:runes_1:1:6,dragonMaterials:ingo_2:1:22,dragonMaterials:blueSoul_2:1:9,dragonMaterials:blueCrystal_2:1:29,dragonMaterials:runes_2:1:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:3,dragonMaterials:blueCrystal_1:1:4,dragonMaterials:runes_1:1:3,dragonMaterials:ingo_2:1:25,dragonMaterials:blueSoul_2:1:10,dragonMaterials:blueCrystal_2:1:33,dragonMaterials:runes_2:1:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:28,dragonMaterials:blueSoul_2:1:11,dragonMaterials:blueCrystal_2:1:36,dragonMaterials:runes_2:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:blueSoul_2:1:10,dragonMaterials:blueCrystal_2:1:32,dragonMaterials:runes_2:1:22,dragonMaterials:ingo_3:1:3,dragonMaterials:blueSoul_3:1:1,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:22,dragonMaterials:blueSoul_2:1:9,dragonMaterials:blueCrystal_2:1:29,dragonMaterials:runes_2:1:20,dragonMaterials:ingo_3:1:5,dragonMaterials:blueSoul_3:1:2,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:20,dragonMaterials:blueSoul_2:1:8,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:runes_2:1:18,dragonMaterials:ingo_3:1:8,dragonMaterials:blueSoul_3:1:3,dragonMaterials:blueCrystal_3:1:11,dragonMaterials:runes_3:1:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:17,dragonMaterials:blueSoul_2:1:7,dragonMaterials:blueCrystal_2:1:22,dragonMaterials:runes_2:1:15,dragonMaterials:ingo_3:1:11,dragonMaterials:blueSoul_3:1:4,dragonMaterials:blueCrystal_3:1:14,dragonMaterials:runes_3:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:14,dragonMaterials:blueSoul_2:1:6,dragonMaterials:blueCrystal_2:1:18,dragonMaterials:runes_2:1:12,dragonMaterials:ingo_3:1:14,dragonMaterials:blueSoul_3:1:5,dragonMaterials:blueCrystal_3:1:19,dragonMaterials:runes_3:1:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:11,dragonMaterials:blueSoul_2:1:4,dragonMaterials:blueCrystal_2:1:14,dragonMaterials:runes_2:1:10,dragonMaterials:ingo_3:1:17,dragonMaterials:blueSoul_3:1:7,dragonMaterials:blueCrystal_3:1:22,dragonMaterials:runes_3:1:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:8,dragonMaterials:blueSoul_2:1:3,dragonMaterials:blueCrystal_2:1:11,dragonMaterials:runes_2:1:8,dragonMaterials:ingo_3:1:20,dragonMaterials:blueSoul_3:1:8,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:runes_3:1:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:6,dragonMaterials:blueSoul_2:1:2,dragonMaterials:blueCrystal_2:1:7,dragonMaterials:runes_2:1:5,dragonMaterials:ingo_3:1:22,dragonMaterials:blueSoul_3:1:9,dragonMaterials:blueCrystal_3:1:29,dragonMaterials:runes_3:1:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1:3,dragonMaterials:blueSoul_2:1:1,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:runes_2:1:2,dragonMaterials:ingo_3:1:25,dragonMaterials:blueSoul_3:1:10,dragonMaterials:blueCrystal_3:1:33,dragonMaterials:runes_3:1:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:28,dragonMaterials:blueSoul_3:1:11,dragonMaterials:blueCrystal_3:1:36,dragonMaterials:runes_3:1:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:blueSoul_3:1:10,dragonMaterials:blueCrystal_3:1:32,dragonMaterials:runes_3:1:22,dragonMaterials:ingo_4:1:3,dragonMaterials:blueSoul_4:1:1,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:22,dragonMaterials:blueSoul_3:1:9,dragonMaterials:blueCrystal_3:1:29,dragonMaterials:runes_3:1:20,dragonMaterials:ingo_4:1:5,dragonMaterials:blueSoul_4:1:2,dragonMaterials:blueCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:20,dragonMaterials:blueSoul_3:1:8,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:runes_3:1:18,dragonMaterials:ingo_4:1:8,dragonMaterials:blueSoul_4:1:3,dragonMaterials:blueCrystal_4:1:11,dragonMaterials:runes_4:1:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:17,dragonMaterials:blueSoul_3:1:7,dragonMaterials:blueCrystal_3:1:22,dragonMaterials:runes_3:1:15,dragonMaterials:ingo_4:1:11,dragonMaterials:blueSoul_4:1:4,dragonMaterials:blueCrystal_4:1:14,dragonMaterials:runes_4:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:14,dragonMaterials:blueSoul_3:1:6,dragonMaterials:blueCrystal_3:1:18,dragonMaterials:runes_3:1:12,dragonMaterials:ingo_4:1:14,dragonMaterials:blueSoul_4:1:5,dragonMaterials:blueCrystal_4:1:19,dragonMaterials:runes_4:1:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:11,dragonMaterials:blueSoul_3:1:4,dragonMaterials:blueCrystal_3:1:14,dragonMaterials:runes_3:1:10,dragonMaterials:ingo_4:1:17,dragonMaterials:blueSoul_4:1:7,dragonMaterials:blueCrystal_4:1:22,dragonMaterials:runes_4:1:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:8,dragonMaterials:blueSoul_3:1:3,dragonMaterials:blueCrystal_3:1:11,dragonMaterials:runes_3:1:8,dragonMaterials:ingo_4:1:20,dragonMaterials:blueSoul_4:1:8,dragonMaterials:blueCrystal_4:1:25,dragonMaterials:runes_4:1:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:6,dragonMaterials:blueSoul_3:1:2,dragonMaterials:blueCrystal_3:1:7,dragonMaterials:runes_3:1:5,dragonMaterials:ingo_4:1:22,dragonMaterials:blueSoul_4:1:9,dragonMaterials:blueCrystal_4:1:29,dragonMaterials:runes_4:1:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1:3,dragonMaterials:blueSoul_3:1:1,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:runes_3:1:2,dragonMaterials:ingo_4:1:25,dragonMaterials:blueSoul_4:1:10,dragonMaterials:blueCrystal_4:1:33,dragonMaterials:runes_4:1:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1:28,dragonMaterials:blueSoul_4:1:11,dragonMaterials:blueCrystal_4:1:36,dragonMaterials:runes_4:1:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,16 +393,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,14 +407,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1A0C7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,45 +431,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -564,8 +622,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,23 +728,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="283">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -687,6 +824,53 @@
     <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -781,6 +965,53 @@
     <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1110,16 +1341,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" style="2"/>
-    <col min="4" max="4" width="140.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="252.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -1142,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1156,13 +1388,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>401</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1170,13 +1402,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>75</v>
+        <v>601</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1184,13 +1416,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>76</v>
+        <v>600</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>701</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1198,13 +1430,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="C6" s="2">
-        <v>200</v>
+        <v>801</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1212,13 +1444,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="C7" s="2">
-        <v>300</v>
+        <v>901</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1226,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>301</v>
+        <v>900</v>
       </c>
       <c r="C8" s="2">
-        <v>400</v>
+        <v>1001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1240,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>401</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>1101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1254,13 +1486,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>501</v>
+        <v>1100</v>
       </c>
       <c r="C10" s="2">
-        <v>800</v>
+        <v>1301</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1268,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>801</v>
+        <v>1300</v>
       </c>
       <c r="C11" s="2">
-        <v>1100</v>
+        <v>2601</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -1282,13 +1514,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>1101</v>
+        <v>2600</v>
       </c>
       <c r="C12" s="2">
-        <v>1400</v>
+        <v>3101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -1296,13 +1528,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>1401</v>
+        <v>3100</v>
       </c>
       <c r="C13" s="2">
-        <v>1700</v>
+        <v>3601</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -1310,13 +1542,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>1701</v>
+        <v>3600</v>
       </c>
       <c r="C14" s="2">
-        <v>2000</v>
+        <v>4101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -1324,13 +1556,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2001</v>
+        <v>4100</v>
       </c>
       <c r="C15" s="2">
-        <v>3000</v>
+        <v>4601</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -1338,13 +1570,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3001</v>
+        <v>4600</v>
       </c>
       <c r="C16" s="2">
-        <v>4000</v>
+        <v>5101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -1352,13 +1584,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>4001</v>
+        <v>5100</v>
       </c>
       <c r="C17" s="2">
-        <v>5000</v>
+        <v>6701</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -1366,13 +1598,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>5001</v>
+        <v>6700</v>
       </c>
       <c r="C18" s="2">
-        <v>6000</v>
+        <v>8301</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1380,13 +1612,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>6001</v>
+        <v>8300</v>
       </c>
       <c r="C19" s="2">
-        <v>7000</v>
+        <v>10801</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -1394,13 +1626,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>7001</v>
+        <v>10800</v>
       </c>
       <c r="C20" s="2">
-        <v>8000</v>
+        <v>12401</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -1408,13 +1640,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>8001</v>
+        <v>12400</v>
       </c>
       <c r="C21" s="2">
-        <v>9000</v>
+        <v>15101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -1422,16 +1654,155 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>9001</v>
+        <v>15100</v>
       </c>
       <c r="C22" s="2">
-        <v>10000</v>
+        <v>19801</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23801</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C24" s="2">
+        <v>28201</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>28200</v>
+      </c>
+      <c r="C25" s="2">
+        <v>32801</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>32800</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37801</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>37800</v>
+      </c>
+      <c r="C27" s="2">
+        <v>39201</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>39200</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44501</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50001</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60001</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>60000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>80001</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>80000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1446,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D32" sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1460,336 +1831,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>301</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>401</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>400</v>
+      </c>
+      <c r="C4" s="2">
+        <v>601</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B5" s="2">
+        <v>600</v>
+      </c>
+      <c r="C5" s="2">
+        <v>701</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B6" s="2">
+        <v>700</v>
+      </c>
+      <c r="C6" s="2">
+        <v>801</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B7" s="2">
+        <v>800</v>
+      </c>
+      <c r="C7" s="2">
+        <v>901</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B8" s="2">
+        <v>900</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2601</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2600</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3601</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4101</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4601</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5101</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6701</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6700</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8301</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10801</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12401</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B21" s="2">
+        <v>12400</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19801</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23801</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C24" s="2">
+        <v>28201</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>28200</v>
+      </c>
+      <c r="C25" s="2">
+        <v>32801</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B26" s="2">
+        <v>32800</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37801</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C3" s="7">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7">
-        <v>75</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>76</v>
-      </c>
-      <c r="C5" s="7">
-        <v>100</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>101</v>
-      </c>
-      <c r="C6" s="7">
-        <v>200</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>201</v>
-      </c>
-      <c r="C7" s="7">
-        <v>300</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>301</v>
-      </c>
-      <c r="C8" s="7">
-        <v>400</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>401</v>
-      </c>
-      <c r="C9" s="7">
-        <v>500</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>501</v>
-      </c>
-      <c r="C10" s="7">
-        <v>800</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>801</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1101</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B27" s="2">
+        <v>37800</v>
+      </c>
+      <c r="C27" s="2">
+        <v>39201</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1401</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1700</v>
-      </c>
-      <c r="D13" s="8" t="s">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>39200</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44501</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1701</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="8" t="s">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50001</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2001</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="8" t="s">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60001</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3001</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4000</v>
-      </c>
-      <c r="D16" s="8" t="s">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>60000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>80001</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4001</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="8" t="s">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>80000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>5001</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6000</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7000</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7">
-        <v>7001</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8000</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <v>8001</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9000</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7">
-        <v>9001</v>
-      </c>
-      <c r="C22" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1805,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1819,336 +2306,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>301</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>401</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>400</v>
+      </c>
+      <c r="C4" s="2">
+        <v>601</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B5" s="2">
+        <v>600</v>
+      </c>
+      <c r="C5" s="2">
+        <v>701</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B6" s="2">
+        <v>700</v>
+      </c>
+      <c r="C6" s="2">
+        <v>801</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B7" s="2">
+        <v>800</v>
+      </c>
+      <c r="C7" s="2">
+        <v>901</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B8" s="2">
+        <v>900</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2601</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2600</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3601</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4101</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4601</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5101</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6701</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6700</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8301</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10801</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12401</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B21" s="2">
+        <v>12400</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19801</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23801</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C24" s="2">
+        <v>28201</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>28200</v>
+      </c>
+      <c r="C25" s="2">
+        <v>32801</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B26" s="2">
+        <v>32800</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37801</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C3" s="7">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7">
-        <v>75</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>76</v>
-      </c>
-      <c r="C5" s="7">
-        <v>100</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>101</v>
-      </c>
-      <c r="C6" s="7">
-        <v>200</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>201</v>
-      </c>
-      <c r="C7" s="7">
-        <v>300</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>301</v>
-      </c>
-      <c r="C8" s="7">
-        <v>400</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>401</v>
-      </c>
-      <c r="C9" s="7">
-        <v>500</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>501</v>
-      </c>
-      <c r="C10" s="7">
-        <v>800</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>801</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1101</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1401</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1700</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1701</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2001</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3001</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4000</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4001</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>5001</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6000</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7000</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7">
-        <v>7001</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8000</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <v>8001</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9000</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="B27" s="2">
+        <v>37800</v>
+      </c>
+      <c r="C27" s="2">
+        <v>39201</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7">
-        <v>9001</v>
-      </c>
-      <c r="C22" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="B28" s="2">
+        <v>39200</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44501</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B29" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50001</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60001</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>60000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>80001</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>80000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/datas/shared/KillDropItems.xlsx
+++ b/datas/shared/KillDropItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1720" windowWidth="51140" windowHeight="18540" tabRatio="323"/>
+    <workbookView xWindow="1260" yWindow="0" windowWidth="37120" windowHeight="20340" tabRatio="323" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="grassLand" sheetId="4" r:id="rId1"/>
@@ -39,321 +39,321 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:redCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
+  </si>
+  <si>
     <t>dragonMaterials:ingo_1:1:32,dragonMaterials:greenCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_1:1:28,dragonMaterials:greenCrystal_1:1:37,dragonMaterials:runes_1:1:25,dragonMaterials:ingo_2:1:3,dragonMaterials:greenSoul_2:1:1,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:25,dragonMaterials:greenCrystal_1:1:33,dragonMaterials:runes_1:1:22,dragonMaterials:ingo_2:1:6,dragonMaterials:greenSoul_2:1:2,dragonMaterials:greenCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:22,dragonMaterials:greenCrystal_1:1:29,dragonMaterials:runes_1:1:20,dragonMaterials:ingo_2:1:8,dragonMaterials:greenSoul_2:1:3,dragonMaterials:greenCrystal_2:1:11,dragonMaterials:runes_2:1:7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:18,dragonMaterials:greenCrystal_1:1:25,dragonMaterials:runes_1:1:17,dragonMaterials:ingo_2:1:11,dragonMaterials:greenSoul_2:1:4,dragonMaterials:greenCrystal_2:1:15,dragonMaterials:runes_2:1:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:16,dragonMaterials:greenCrystal_1:1:21,dragonMaterials:runes_1:1:14,dragonMaterials:ingo_2:1:14,dragonMaterials:greenSoul_2:1:5,dragonMaterials:greenCrystal_2:1:18,dragonMaterials:runes_2:1:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:12,dragonMaterials:greenCrystal_1:1:16,dragonMaterials:runes_1:1:12,dragonMaterials:ingo_2:1:17,dragonMaterials:greenSoul_2:1:6,dragonMaterials:greenCrystal_2:1:22,dragonMaterials:runes_2:1:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:9,dragonMaterials:greenCrystal_1:1:12,dragonMaterials:runes_1:1:8,dragonMaterials:ingo_2:1:20,dragonMaterials:greenSoul_2:1:8,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:runes_2:1:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:6,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:runes_1:1:6,dragonMaterials:ingo_2:1:22,dragonMaterials:greenSoul_2:1:9,dragonMaterials:greenCrystal_2:1:29,dragonMaterials:runes_2:1:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:3,dragonMaterials:greenCrystal_1:1:4,dragonMaterials:runes_1:1:3,dragonMaterials:ingo_2:1:25,dragonMaterials:greenSoul_2:1:10,dragonMaterials:greenCrystal_2:1:33,dragonMaterials:runes_2:1:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:28,dragonMaterials:greenSoul_2:1:11,dragonMaterials:greenCrystal_2:1:36,dragonMaterials:runes_2:1:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:28,dragonMaterials:greenSoul_3:1:11,dragonMaterials:greenCrystal_3:1:36,dragonMaterials:runes_3:1:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:greenSoul_3:1:10,dragonMaterials:greenCrystal_3:1:32,dragonMaterials:runes_3:1:22,dragonMaterials:ingo_4:1:3,dragonMaterials:greenSoul_4:1:1,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:22,dragonMaterials:greenSoul_3:1:9,dragonMaterials:greenCrystal_3:1:29,dragonMaterials:runes_3:1:20,dragonMaterials:ingo_4:1:5,dragonMaterials:greenSoul_4:1:2,dragonMaterials:greenCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:20,dragonMaterials:greenSoul_3:1:8,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:runes_3:1:18,dragonMaterials:ingo_4:1:8,dragonMaterials:greenSoul_4:1:3,dragonMaterials:greenCrystal_4:1:11,dragonMaterials:runes_4:1:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:17,dragonMaterials:greenSoul_3:1:7,dragonMaterials:greenCrystal_3:1:22,dragonMaterials:runes_3:1:15,dragonMaterials:ingo_4:1:11,dragonMaterials:greenSoul_4:1:4,dragonMaterials:greenCrystal_4:1:14,dragonMaterials:runes_4:1:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:14,dragonMaterials:greenSoul_3:1:6,dragonMaterials:greenCrystal_3:1:18,dragonMaterials:runes_3:1:12,dragonMaterials:ingo_4:1:14,dragonMaterials:greenSoul_4:1:5,dragonMaterials:greenCrystal_4:1:19,dragonMaterials:runes_4:1:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:11,dragonMaterials:greenSoul_3:1:4,dragonMaterials:greenCrystal_3:1:14,dragonMaterials:runes_3:1:10,dragonMaterials:ingo_4:1:17,dragonMaterials:greenSoul_4:1:7,dragonMaterials:greenCrystal_4:1:22,dragonMaterials:runes_4:1:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:8,dragonMaterials:greenSoul_3:1:3,dragonMaterials:greenCrystal_3:1:11,dragonMaterials:runes_3:1:8,dragonMaterials:ingo_4:1:20,dragonMaterials:greenSoul_4:1:8,dragonMaterials:greenCrystal_4:1:25,dragonMaterials:runes_4:1:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:6,dragonMaterials:greenSoul_3:1:2,dragonMaterials:greenCrystal_3:1:7,dragonMaterials:runes_3:1:5,dragonMaterials:ingo_4:1:22,dragonMaterials:greenSoul_4:1:9,dragonMaterials:greenCrystal_4:1:29,dragonMaterials:runes_4:1:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:3,dragonMaterials:greenSoul_3:1:1,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:runes_3:1:2,dragonMaterials:ingo_4:1:25,dragonMaterials:greenSoul_4:1:10,dragonMaterials:greenCrystal_4:1:33,dragonMaterials:runes_4:1:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:greenSoul_2:1:10,dragonMaterials:greenCrystal_2:1:32,dragonMaterials:runes_2:1:22,dragonMaterials:ingo_3:1:3,dragonMaterials:greenSoul_3:1:1,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:22,dragonMaterials:greenSoul_2:1:9,dragonMaterials:greenCrystal_2:1:29,dragonMaterials:runes_2:1:20,dragonMaterials:ingo_3:1:5,dragonMaterials:greenSoul_3:1:2,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:20,dragonMaterials:greenSoul_2:1:8,dragonMaterials:greenCrystal_2:1:25,dragonMaterials:runes_2:1:18,dragonMaterials:ingo_3:1:8,dragonMaterials:greenSoul_3:1:3,dragonMaterials:greenCrystal_3:1:11,dragonMaterials:runes_3:1:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:17,dragonMaterials:greenSoul_2:1:7,dragonMaterials:greenCrystal_2:1:22,dragonMaterials:runes_2:1:15,dragonMaterials:ingo_3:1:11,dragonMaterials:greenSoul_3:1:4,dragonMaterials:greenCrystal_3:1:14,dragonMaterials:runes_3:1:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:14,dragonMaterials:greenSoul_2:1:6,dragonMaterials:greenCrystal_2:1:18,dragonMaterials:runes_2:1:12,dragonMaterials:ingo_3:1:14,dragonMaterials:greenSoul_3:1:5,dragonMaterials:greenCrystal_3:1:19,dragonMaterials:runes_3:1:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:11,dragonMaterials:greenSoul_2:1:4,dragonMaterials:greenCrystal_2:1:14,dragonMaterials:runes_2:1:10,dragonMaterials:ingo_3:1:17,dragonMaterials:greenSoul_3:1:7,dragonMaterials:greenCrystal_3:1:22,dragonMaterials:runes_3:1:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:8,dragonMaterials:greenSoul_2:1:3,dragonMaterials:greenCrystal_2:1:11,dragonMaterials:runes_2:1:8,dragonMaterials:ingo_3:1:20,dragonMaterials:greenSoul_3:1:8,dragonMaterials:greenCrystal_3:1:25,dragonMaterials:runes_3:1:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:6,dragonMaterials:greenSoul_2:1:2,dragonMaterials:greenCrystal_2:1:7,dragonMaterials:runes_2:1:5,dragonMaterials:ingo_3:1:22,dragonMaterials:greenSoul_3:1:9,dragonMaterials:greenCrystal_3:1:29,dragonMaterials:runes_3:1:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:3,dragonMaterials:greenSoul_2:1:1,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:runes_2:1:2,dragonMaterials:ingo_3:1:25,dragonMaterials:greenSoul_3:1:10,dragonMaterials:greenCrystal_3:1:33,dragonMaterials:runes_3:1:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:28,dragonMaterials:greenSoul_4:1:11,dragonMaterials:greenCrystal_4:1:36,dragonMaterials:runes_4:1:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:redCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:28,dragonMaterials:redCrystal_1:1:37,dragonMaterials:runes_1:1:25,dragonMaterials:ingo_2:1:3,dragonMaterials:redSoul_2:1:1,dragonMaterials:redCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:25,dragonMaterials:redCrystal_1:1:33,dragonMaterials:runes_1:1:22,dragonMaterials:ingo_2:1:6,dragonMaterials:redSoul_2:1:2,dragonMaterials:redCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:22,dragonMaterials:redCrystal_1:1:29,dragonMaterials:runes_1:1:20,dragonMaterials:ingo_2:1:8,dragonMaterials:redSoul_2:1:3,dragonMaterials:redCrystal_2:1:11,dragonMaterials:runes_2:1:7</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:18,dragonMaterials:redCrystal_1:1:25,dragonMaterials:runes_1:1:17,dragonMaterials:ingo_2:1:11,dragonMaterials:redSoul_2:1:4,dragonMaterials:redCrystal_2:1:15,dragonMaterials:runes_2:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:16,dragonMaterials:redCrystal_1:1:21,dragonMaterials:runes_1:1:14,dragonMaterials:ingo_2:1:14,dragonMaterials:redSoul_2:1:5,dragonMaterials:redCrystal_2:1:18,dragonMaterials:runes_2:1:12</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:12,dragonMaterials:redCrystal_1:1:16,dragonMaterials:runes_1:1:12,dragonMaterials:ingo_2:1:17,dragonMaterials:redSoul_2:1:6,dragonMaterials:redCrystal_2:1:22,dragonMaterials:runes_2:1:15</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:9,dragonMaterials:redCrystal_1:1:12,dragonMaterials:runes_1:1:8,dragonMaterials:ingo_2:1:20,dragonMaterials:redSoul_2:1:8,dragonMaterials:redCrystal_2:1:25,dragonMaterials:runes_2:1:18</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:6,dragonMaterials:redCrystal_1:1:8,dragonMaterials:runes_1:1:6,dragonMaterials:ingo_2:1:22,dragonMaterials:redSoul_2:1:9,dragonMaterials:redCrystal_2:1:29,dragonMaterials:runes_2:1:20</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:3,dragonMaterials:redCrystal_1:1:4,dragonMaterials:runes_1:1:3,dragonMaterials:ingo_2:1:25,dragonMaterials:redSoul_2:1:10,dragonMaterials:redCrystal_2:1:33,dragonMaterials:runes_2:1:22</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:28,dragonMaterials:redSoul_2:1:11,dragonMaterials:redCrystal_2:1:36,dragonMaterials:runes_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:redSoul_2:1:10,dragonMaterials:redCrystal_2:1:32,dragonMaterials:runes_2:1:22,dragonMaterials:ingo_3:1:3,dragonMaterials:redSoul_3:1:1,dragonMaterials:redCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:22,dragonMaterials:redSoul_2:1:9,dragonMaterials:redCrystal_2:1:29,dragonMaterials:runes_2:1:20,dragonMaterials:ingo_3:1:5,dragonMaterials:redSoul_3:1:2,dragonMaterials:redCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:20,dragonMaterials:redSoul_2:1:8,dragonMaterials:redCrystal_2:1:25,dragonMaterials:runes_2:1:18,dragonMaterials:ingo_3:1:8,dragonMaterials:redSoul_3:1:3,dragonMaterials:redCrystal_3:1:11,dragonMaterials:runes_3:1:8</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:17,dragonMaterials:redSoul_2:1:7,dragonMaterials:redCrystal_2:1:22,dragonMaterials:runes_2:1:15,dragonMaterials:ingo_3:1:11,dragonMaterials:redSoul_3:1:4,dragonMaterials:redCrystal_3:1:14,dragonMaterials:runes_3:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:14,dragonMaterials:redSoul_2:1:6,dragonMaterials:redCrystal_2:1:18,dragonMaterials:runes_2:1:12,dragonMaterials:ingo_3:1:14,dragonMaterials:redSoul_3:1:5,dragonMaterials:redCrystal_3:1:19,dragonMaterials:runes_3:1:12</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:11,dragonMaterials:redSoul_2:1:4,dragonMaterials:redCrystal_2:1:14,dragonMaterials:runes_2:1:10,dragonMaterials:ingo_3:1:17,dragonMaterials:redSoul_3:1:7,dragonMaterials:redCrystal_3:1:22,dragonMaterials:runes_3:1:15</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:8,dragonMaterials:redSoul_2:1:3,dragonMaterials:redCrystal_2:1:11,dragonMaterials:runes_2:1:8,dragonMaterials:ingo_3:1:20,dragonMaterials:redSoul_3:1:8,dragonMaterials:redCrystal_3:1:25,dragonMaterials:runes_3:1:17</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:6,dragonMaterials:redSoul_2:1:2,dragonMaterials:redCrystal_2:1:7,dragonMaterials:runes_2:1:5,dragonMaterials:ingo_3:1:22,dragonMaterials:redSoul_3:1:9,dragonMaterials:redCrystal_3:1:29,dragonMaterials:runes_3:1:20</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:3,dragonMaterials:redSoul_2:1:1,dragonMaterials:redCrystal_2:1:4,dragonMaterials:runes_2:1:2,dragonMaterials:ingo_3:1:25,dragonMaterials:redSoul_3:1:10,dragonMaterials:redCrystal_3:1:33,dragonMaterials:runes_3:1:22</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:28,dragonMaterials:redSoul_3:1:11,dragonMaterials:redCrystal_3:1:36,dragonMaterials:runes_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:redSoul_3:1:10,dragonMaterials:redCrystal_3:1:32,dragonMaterials:runes_3:1:22,dragonMaterials:ingo_4:1:3,dragonMaterials:redSoul_4:1:1,dragonMaterials:redCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:22,dragonMaterials:redSoul_3:1:9,dragonMaterials:redCrystal_3:1:29,dragonMaterials:runes_3:1:20,dragonMaterials:ingo_4:1:5,dragonMaterials:redSoul_4:1:2,dragonMaterials:redCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:20,dragonMaterials:redSoul_3:1:8,dragonMaterials:redCrystal_3:1:25,dragonMaterials:runes_3:1:18,dragonMaterials:ingo_4:1:8,dragonMaterials:redSoul_4:1:3,dragonMaterials:redCrystal_4:1:11,dragonMaterials:runes_4:1:8</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:17,dragonMaterials:redSoul_3:1:7,dragonMaterials:redCrystal_3:1:22,dragonMaterials:runes_3:1:15,dragonMaterials:ingo_4:1:11,dragonMaterials:redSoul_4:1:4,dragonMaterials:redCrystal_4:1:14,dragonMaterials:runes_4:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:14,dragonMaterials:redSoul_3:1:6,dragonMaterials:redCrystal_3:1:18,dragonMaterials:runes_3:1:12,dragonMaterials:ingo_4:1:14,dragonMaterials:redSoul_4:1:5,dragonMaterials:redCrystal_4:1:19,dragonMaterials:runes_4:1:12</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:11,dragonMaterials:redSoul_3:1:4,dragonMaterials:redCrystal_3:1:14,dragonMaterials:runes_3:1:10,dragonMaterials:ingo_4:1:17,dragonMaterials:redSoul_4:1:7,dragonMaterials:redCrystal_4:1:22,dragonMaterials:runes_4:1:15</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:8,dragonMaterials:redSoul_3:1:3,dragonMaterials:redCrystal_3:1:11,dragonMaterials:runes_3:1:8,dragonMaterials:ingo_4:1:20,dragonMaterials:redSoul_4:1:8,dragonMaterials:redCrystal_4:1:25,dragonMaterials:runes_4:1:17</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:6,dragonMaterials:redSoul_3:1:2,dragonMaterials:redCrystal_3:1:7,dragonMaterials:runes_3:1:5,dragonMaterials:ingo_4:1:22,dragonMaterials:redSoul_4:1:9,dragonMaterials:redCrystal_4:1:29,dragonMaterials:runes_4:1:20</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:3,dragonMaterials:redSoul_3:1:1,dragonMaterials:redCrystal_3:1:4,dragonMaterials:runes_3:1:2,dragonMaterials:ingo_4:1:25,dragonMaterials:redSoul_4:1:10,dragonMaterials:redCrystal_4:1:33,dragonMaterials:runes_4:1:22</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:28,dragonMaterials:redSoul_4:1:11,dragonMaterials:redCrystal_4:1:36,dragonMaterials:runes_4:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:32,dragonMaterials:blueCrystal_1:1:40,dragonMaterials:runes_1:1:28</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:28,dragonMaterials:blueCrystal_1:1:37,dragonMaterials:runes_1:1:25,dragonMaterials:ingo_2:1:3,dragonMaterials:blueSoul_2:1:1,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:25,dragonMaterials:blueCrystal_1:1:33,dragonMaterials:runes_1:1:22,dragonMaterials:ingo_2:1:6,dragonMaterials:blueSoul_2:1:2,dragonMaterials:blueCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:22,dragonMaterials:blueCrystal_1:1:29,dragonMaterials:runes_1:1:20,dragonMaterials:ingo_2:1:8,dragonMaterials:blueSoul_2:1:3,dragonMaterials:blueCrystal_2:1:11,dragonMaterials:runes_2:1:7</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:18,dragonMaterials:blueCrystal_1:1:25,dragonMaterials:runes_1:1:17,dragonMaterials:ingo_2:1:11,dragonMaterials:blueSoul_2:1:4,dragonMaterials:blueCrystal_2:1:15,dragonMaterials:runes_2:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:16,dragonMaterials:blueCrystal_1:1:21,dragonMaterials:runes_1:1:14,dragonMaterials:ingo_2:1:14,dragonMaterials:blueSoul_2:1:5,dragonMaterials:blueCrystal_2:1:18,dragonMaterials:runes_2:1:12</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:12,dragonMaterials:blueCrystal_1:1:16,dragonMaterials:runes_1:1:12,dragonMaterials:ingo_2:1:17,dragonMaterials:blueSoul_2:1:6,dragonMaterials:blueCrystal_2:1:22,dragonMaterials:runes_2:1:15</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:9,dragonMaterials:blueCrystal_1:1:12,dragonMaterials:runes_1:1:8,dragonMaterials:ingo_2:1:20,dragonMaterials:blueSoul_2:1:8,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:runes_2:1:18</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:6,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:runes_1:1:6,dragonMaterials:ingo_2:1:22,dragonMaterials:blueSoul_2:1:9,dragonMaterials:blueCrystal_2:1:29,dragonMaterials:runes_2:1:20</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1:3,dragonMaterials:blueCrystal_1:1:4,dragonMaterials:runes_1:1:3,dragonMaterials:ingo_2:1:25,dragonMaterials:blueSoul_2:1:10,dragonMaterials:blueCrystal_2:1:33,dragonMaterials:runes_2:1:22</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:28,dragonMaterials:blueSoul_2:1:11,dragonMaterials:blueCrystal_2:1:36,dragonMaterials:runes_2:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:25,dragonMaterials:blueSoul_2:1:10,dragonMaterials:blueCrystal_2:1:32,dragonMaterials:runes_2:1:22,dragonMaterials:ingo_3:1:3,dragonMaterials:blueSoul_3:1:1,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:22,dragonMaterials:blueSoul_2:1:9,dragonMaterials:blueCrystal_2:1:29,dragonMaterials:runes_2:1:20,dragonMaterials:ingo_3:1:5,dragonMaterials:blueSoul_3:1:2,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:20,dragonMaterials:blueSoul_2:1:8,dragonMaterials:blueCrystal_2:1:25,dragonMaterials:runes_2:1:18,dragonMaterials:ingo_3:1:8,dragonMaterials:blueSoul_3:1:3,dragonMaterials:blueCrystal_3:1:11,dragonMaterials:runes_3:1:8</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:17,dragonMaterials:blueSoul_2:1:7,dragonMaterials:blueCrystal_2:1:22,dragonMaterials:runes_2:1:15,dragonMaterials:ingo_3:1:11,dragonMaterials:blueSoul_3:1:4,dragonMaterials:blueCrystal_3:1:14,dragonMaterials:runes_3:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:14,dragonMaterials:blueSoul_2:1:6,dragonMaterials:blueCrystal_2:1:18,dragonMaterials:runes_2:1:12,dragonMaterials:ingo_3:1:14,dragonMaterials:blueSoul_3:1:5,dragonMaterials:blueCrystal_3:1:19,dragonMaterials:runes_3:1:12</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:11,dragonMaterials:blueSoul_2:1:4,dragonMaterials:blueCrystal_2:1:14,dragonMaterials:runes_2:1:10,dragonMaterials:ingo_3:1:17,dragonMaterials:blueSoul_3:1:7,dragonMaterials:blueCrystal_3:1:22,dragonMaterials:runes_3:1:15</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:8,dragonMaterials:blueSoul_2:1:3,dragonMaterials:blueCrystal_2:1:11,dragonMaterials:runes_2:1:8,dragonMaterials:ingo_3:1:20,dragonMaterials:blueSoul_3:1:8,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:runes_3:1:17</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:6,dragonMaterials:blueSoul_2:1:2,dragonMaterials:blueCrystal_2:1:7,dragonMaterials:runes_2:1:5,dragonMaterials:ingo_3:1:22,dragonMaterials:blueSoul_3:1:9,dragonMaterials:blueCrystal_3:1:29,dragonMaterials:runes_3:1:20</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1:3,dragonMaterials:blueSoul_2:1:1,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:runes_2:1:2,dragonMaterials:ingo_3:1:25,dragonMaterials:blueSoul_3:1:10,dragonMaterials:blueCrystal_3:1:33,dragonMaterials:runes_3:1:22</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:28,dragonMaterials:blueSoul_3:1:11,dragonMaterials:blueCrystal_3:1:36,dragonMaterials:runes_3:1:25</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:25,dragonMaterials:blueSoul_3:1:10,dragonMaterials:blueCrystal_3:1:32,dragonMaterials:runes_3:1:22,dragonMaterials:ingo_4:1:3,dragonMaterials:blueSoul_4:1:1,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:22,dragonMaterials:blueSoul_3:1:9,dragonMaterials:blueCrystal_3:1:29,dragonMaterials:runes_3:1:20,dragonMaterials:ingo_4:1:5,dragonMaterials:blueSoul_4:1:2,dragonMaterials:blueCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:20,dragonMaterials:blueSoul_3:1:8,dragonMaterials:blueCrystal_3:1:25,dragonMaterials:runes_3:1:18,dragonMaterials:ingo_4:1:8,dragonMaterials:blueSoul_4:1:3,dragonMaterials:blueCrystal_4:1:11,dragonMaterials:runes_4:1:8</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:17,dragonMaterials:blueSoul_3:1:7,dragonMaterials:blueCrystal_3:1:22,dragonMaterials:runes_3:1:15,dragonMaterials:ingo_4:1:11,dragonMaterials:blueSoul_4:1:4,dragonMaterials:blueCrystal_4:1:14,dragonMaterials:runes_4:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:14,dragonMaterials:blueSoul_3:1:6,dragonMaterials:blueCrystal_3:1:18,dragonMaterials:runes_3:1:12,dragonMaterials:ingo_4:1:14,dragonMaterials:blueSoul_4:1:5,dragonMaterials:blueCrystal_4:1:19,dragonMaterials:runes_4:1:12</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:11,dragonMaterials:blueSoul_3:1:4,dragonMaterials:blueCrystal_3:1:14,dragonMaterials:runes_3:1:10,dragonMaterials:ingo_4:1:17,dragonMaterials:blueSoul_4:1:7,dragonMaterials:blueCrystal_4:1:22,dragonMaterials:runes_4:1:15</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:8,dragonMaterials:blueSoul_3:1:3,dragonMaterials:blueCrystal_3:1:11,dragonMaterials:runes_3:1:8,dragonMaterials:ingo_4:1:20,dragonMaterials:blueSoul_4:1:8,dragonMaterials:blueCrystal_4:1:25,dragonMaterials:runes_4:1:17</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:6,dragonMaterials:blueSoul_3:1:2,dragonMaterials:blueCrystal_3:1:7,dragonMaterials:runes_3:1:5,dragonMaterials:ingo_4:1:22,dragonMaterials:blueSoul_4:1:9,dragonMaterials:blueCrystal_4:1:29,dragonMaterials:runes_4:1:20</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1:3,dragonMaterials:blueSoul_3:1:1,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:runes_3:1:2,dragonMaterials:ingo_4:1:25,dragonMaterials:blueSoul_4:1:10,dragonMaterials:blueCrystal_4:1:33,dragonMaterials:runes_4:1:22</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1:28,dragonMaterials:blueSoul_4:1:11,dragonMaterials:blueCrystal_4:1:36,dragonMaterials:runes_4:1:25</t>
+    <t>dragonMaterials:ingo_1:3:25,dragonMaterials:greenCrystal_1:3:33,dragonMaterials:runes_1:3:22,dragonMaterials:ingo_2:1:6,dragonMaterials:greenSoul_2:1:2,dragonMaterials:greenCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:28,dragonMaterials:greenCrystal_1:2:37,dragonMaterials:runes_1:2:25,dragonMaterials:ingo_2:1:3,dragonMaterials:greenSoul_2:1:1,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:10:3,dragonMaterials:greenCrystal_1:10:4,dragonMaterials:runes_1:10:3,dragonMaterials:ingo_2:5:25,dragonMaterials:greenSoul_2:5:10,dragonMaterials:greenCrystal_2:5:33,dragonMaterials:runes_2:5:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:9:6,dragonMaterials:greenCrystal_1:9:8,dragonMaterials:runes_1:9:6,dragonMaterials:ingo_2:4:22,dragonMaterials:greenSoul_2:4:9,dragonMaterials:greenCrystal_2:4:29,dragonMaterials:runes_2:4:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:8:9,dragonMaterials:greenCrystal_1:8:12,dragonMaterials:runes_1:8:8,dragonMaterials:ingo_2:4:20,dragonMaterials:greenSoul_2:4:8,dragonMaterials:greenCrystal_2:4:25,dragonMaterials:runes_2:4:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:7:12,dragonMaterials:greenCrystal_1:7:16,dragonMaterials:runes_1:7:12,dragonMaterials:ingo_2:3:17,dragonMaterials:greenSoul_2:3:6,dragonMaterials:greenCrystal_2:3:22,dragonMaterials:runes_2:3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6:16,dragonMaterials:greenCrystal_1:6:21,dragonMaterials:runes_1:6:14,dragonMaterials:ingo_2:3:14,dragonMaterials:greenSoul_2:3:5,dragonMaterials:greenCrystal_2:3:18,dragonMaterials:runes_2:3:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5:18,dragonMaterials:greenCrystal_1:5:25,dragonMaterials:runes_1:5:17,dragonMaterials:ingo_2:2:11,dragonMaterials:greenSoul_2:2:4,dragonMaterials:greenCrystal_2:2:15,dragonMaterials:runes_2:2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:22,dragonMaterials:greenCrystal_1:4:29,dragonMaterials:runes_1:4:20,dragonMaterials:ingo_2:2:8,dragonMaterials:greenSoul_2:2:3,dragonMaterials:greenCrystal_2:2:11,dragonMaterials:runes_2:2:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:5:28,dragonMaterials:greenSoul_2:5:11,dragonMaterials:greenCrystal_2:5:36,dragonMaterials:runes_2:5:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:28,dragonMaterials:greenSoul_4:5:11,dragonMaterials:greenCrystal_4:5:36,dragonMaterials:runes_4:5:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:10:3,dragonMaterials:greenSoul_2:10:1,dragonMaterials:greenCrystal_2:10:4,dragonMaterials:runes_2:10:2,dragonMaterials:ingo_3:5:25,dragonMaterials:greenSoul_3:5:10,dragonMaterials:greenCrystal_3:5:33,dragonMaterials:runes_3:5:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:25,dragonMaterials:greenSoul_2:6:10,dragonMaterials:greenCrystal_2:6:32,dragonMaterials:runes_2:6:22,dragonMaterials:ingo_3:1:3,dragonMaterials:greenSoul_3:1:1,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:22,dragonMaterials:greenSoul_2:6:9,dragonMaterials:greenCrystal_2:6:29,dragonMaterials:runes_2:6:20,dragonMaterials:ingo_3:1:5,dragonMaterials:greenSoul_3:1:2,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:9:6,dragonMaterials:greenSoul_2:9:2,dragonMaterials:greenCrystal_2:9:7,dragonMaterials:runes_2:9:5,dragonMaterials:ingo_3:4:22,dragonMaterials:greenSoul_3:4:9,dragonMaterials:greenCrystal_3:4:29,dragonMaterials:runes_3:4:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:9:8,dragonMaterials:greenSoul_2:9:3,dragonMaterials:greenCrystal_2:9:11,dragonMaterials:runes_2:9:8,dragonMaterials:ingo_3:4:20,dragonMaterials:greenSoul_3:4:8,dragonMaterials:greenCrystal_3:4:25,dragonMaterials:runes_3:4:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:8:11,dragonMaterials:greenSoul_2:8:4,dragonMaterials:greenCrystal_2:8:14,dragonMaterials:runes_2:8:10,dragonMaterials:ingo_3:3:17,dragonMaterials:greenSoul_3:3:7,dragonMaterials:greenCrystal_3:3:22,dragonMaterials:runes_3:3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:8:14,dragonMaterials:greenSoul_2:8:6,dragonMaterials:greenCrystal_2:8:18,dragonMaterials:runes_2:8:12,dragonMaterials:ingo_3:3:14,dragonMaterials:greenSoul_3:3:5,dragonMaterials:greenCrystal_3:3:19,dragonMaterials:runes_3:3:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:7:20,dragonMaterials:greenSoul_2:7:8,dragonMaterials:greenCrystal_2:7:25,dragonMaterials:runes_2:7:18,dragonMaterials:ingo_3:2:8,dragonMaterials:greenSoul_3:2:3,dragonMaterials:greenCrystal_3:2:11,dragonMaterials:runes_3:2:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:7:17,dragonMaterials:greenSoul_2:7:7,dragonMaterials:greenCrystal_2:7:22,dragonMaterials:runes_2:7:15,dragonMaterials:ingo_3:2:11,dragonMaterials:greenSoul_3:2:4,dragonMaterials:greenCrystal_3:2:14,dragonMaterials:runes_3:2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:28,dragonMaterials:greenSoul_3:5:11,dragonMaterials:greenCrystal_3:5:36,dragonMaterials:runes_3:5:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:25,dragonMaterials:greenSoul_3:6:10,dragonMaterials:greenCrystal_3:6:32,dragonMaterials:runes_3:6:22,dragonMaterials:ingo_4:1:3,dragonMaterials:greenSoul_4:1:1,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:22,dragonMaterials:greenSoul_3:6:9,dragonMaterials:greenCrystal_3:6:29,dragonMaterials:runes_3:6:20,dragonMaterials:ingo_4:1:5,dragonMaterials:greenSoul_4:1:2,dragonMaterials:greenCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:7:20,dragonMaterials:greenSoul_3:7:8,dragonMaterials:greenCrystal_3:7:25,dragonMaterials:runes_3:7:18,dragonMaterials:ingo_4:2:8,dragonMaterials:greenSoul_4:2:3,dragonMaterials:greenCrystal_4:2:11,dragonMaterials:runes_4:2:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:7:17,dragonMaterials:greenSoul_3:7:7,dragonMaterials:greenCrystal_3:7:22,dragonMaterials:runes_3:7:15,dragonMaterials:ingo_4:2:11,dragonMaterials:greenSoul_4:2:4,dragonMaterials:greenCrystal_4:2:14,dragonMaterials:runes_4:2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:8:14,dragonMaterials:greenSoul_3:8:6,dragonMaterials:greenCrystal_3:8:18,dragonMaterials:runes_3:8:12,dragonMaterials:ingo_4:3:14,dragonMaterials:greenSoul_4:3:5,dragonMaterials:greenCrystal_4:3:19,dragonMaterials:runes_4:3:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:8:11,dragonMaterials:greenSoul_3:8:4,dragonMaterials:greenCrystal_3:8:14,dragonMaterials:runes_3:8:10,dragonMaterials:ingo_4:3:17,dragonMaterials:greenSoul_4:3:7,dragonMaterials:greenCrystal_4:3:22,dragonMaterials:runes_4:3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:9:8,dragonMaterials:greenSoul_3:9:3,dragonMaterials:greenCrystal_3:9:11,dragonMaterials:runes_3:9:8,dragonMaterials:ingo_4:4:20,dragonMaterials:greenSoul_4:4:8,dragonMaterials:greenCrystal_4:4:25,dragonMaterials:runes_4:4:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:9:6,dragonMaterials:greenSoul_3:9:2,dragonMaterials:greenCrystal_3:9:7,dragonMaterials:runes_3:9:5,dragonMaterials:ingo_4:4:22,dragonMaterials:greenSoul_4:4:9,dragonMaterials:greenCrystal_4:4:29,dragonMaterials:runes_4:4:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:10:3,dragonMaterials:greenSoul_3:10:1,dragonMaterials:greenCrystal_3:10:4,dragonMaterials:runes_3:10:2,dragonMaterials:ingo_4:5:25,dragonMaterials:greenSoul_4:5:10,dragonMaterials:greenCrystal_4:5:33,dragonMaterials:runes_4:5:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:28,dragonMaterials:redCrystal_1:2:37,dragonMaterials:runes_1:2:25,dragonMaterials:ingo_2:1:3,dragonMaterials:redSoul_2:1:1,dragonMaterials:redCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:25,dragonMaterials:redCrystal_1:3:33,dragonMaterials:runes_1:3:22,dragonMaterials:ingo_2:1:6,dragonMaterials:redSoul_2:1:2,dragonMaterials:redCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:22,dragonMaterials:redCrystal_1:4:29,dragonMaterials:runes_1:4:20,dragonMaterials:ingo_2:2:8,dragonMaterials:redSoul_2:2:3,dragonMaterials:redCrystal_2:2:11,dragonMaterials:runes_2:2:7</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5:18,dragonMaterials:redCrystal_1:5:25,dragonMaterials:runes_1:5:17,dragonMaterials:ingo_2:2:11,dragonMaterials:redSoul_2:2:4,dragonMaterials:redCrystal_2:2:15,dragonMaterials:runes_2:2:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6:16,dragonMaterials:redCrystal_1:6:21,dragonMaterials:runes_1:6:14,dragonMaterials:ingo_2:3:14,dragonMaterials:redSoul_2:3:5,dragonMaterials:redCrystal_2:3:18,dragonMaterials:runes_2:3:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:7:12,dragonMaterials:redCrystal_1:7:16,dragonMaterials:runes_1:7:12,dragonMaterials:ingo_2:3:17,dragonMaterials:redSoul_2:3:6,dragonMaterials:redCrystal_2:3:22,dragonMaterials:runes_2:3:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:8:9,dragonMaterials:redCrystal_1:8:12,dragonMaterials:runes_1:8:8,dragonMaterials:ingo_2:4:20,dragonMaterials:redSoul_2:4:8,dragonMaterials:redCrystal_2:4:25,dragonMaterials:runes_2:4:18</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:9:6,dragonMaterials:redCrystal_1:9:8,dragonMaterials:runes_1:9:6,dragonMaterials:ingo_2:4:22,dragonMaterials:redSoul_2:4:9,dragonMaterials:redCrystal_2:4:29,dragonMaterials:runes_2:4:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:10:3,dragonMaterials:redCrystal_1:10:4,dragonMaterials:runes_1:10:3,dragonMaterials:ingo_2:5:25,dragonMaterials:redSoul_2:5:10,dragonMaterials:redCrystal_2:5:33,dragonMaterials:runes_2:5:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:5:28,dragonMaterials:redSoul_2:5:11,dragonMaterials:redCrystal_2:5:36,dragonMaterials:runes_2:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:25,dragonMaterials:redSoul_2:6:10,dragonMaterials:redCrystal_2:6:32,dragonMaterials:runes_2:6:22,dragonMaterials:ingo_3:1:3,dragonMaterials:redSoul_3:1:1,dragonMaterials:redCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:22,dragonMaterials:redSoul_2:6:9,dragonMaterials:redCrystal_2:6:29,dragonMaterials:runes_2:6:20,dragonMaterials:ingo_3:1:5,dragonMaterials:redSoul_3:1:2,dragonMaterials:redCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:7:20,dragonMaterials:redSoul_2:7:8,dragonMaterials:redCrystal_2:7:25,dragonMaterials:runes_2:7:18,dragonMaterials:ingo_3:2:8,dragonMaterials:redSoul_3:2:3,dragonMaterials:redCrystal_3:2:11,dragonMaterials:runes_3:2:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:7:17,dragonMaterials:redSoul_2:7:7,dragonMaterials:redCrystal_2:7:22,dragonMaterials:runes_2:7:15,dragonMaterials:ingo_3:2:11,dragonMaterials:redSoul_3:2:4,dragonMaterials:redCrystal_3:2:14,dragonMaterials:runes_3:2:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:8:14,dragonMaterials:redSoul_2:8:6,dragonMaterials:redCrystal_2:8:18,dragonMaterials:runes_2:8:12,dragonMaterials:ingo_3:3:14,dragonMaterials:redSoul_3:3:5,dragonMaterials:redCrystal_3:3:19,dragonMaterials:runes_3:3:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:8:11,dragonMaterials:redSoul_2:8:4,dragonMaterials:redCrystal_2:8:14,dragonMaterials:runes_2:8:10,dragonMaterials:ingo_3:3:17,dragonMaterials:redSoul_3:3:7,dragonMaterials:redCrystal_3:3:22,dragonMaterials:runes_3:3:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:9:8,dragonMaterials:redSoul_2:9:3,dragonMaterials:redCrystal_2:9:11,dragonMaterials:runes_2:9:8,dragonMaterials:ingo_3:4:20,dragonMaterials:redSoul_3:4:8,dragonMaterials:redCrystal_3:4:25,dragonMaterials:runes_3:4:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:9:6,dragonMaterials:redSoul_2:9:2,dragonMaterials:redCrystal_2:9:7,dragonMaterials:runes_2:9:5,dragonMaterials:ingo_3:4:22,dragonMaterials:redSoul_3:4:9,dragonMaterials:redCrystal_3:4:29,dragonMaterials:runes_3:4:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:10:3,dragonMaterials:redSoul_2:10:1,dragonMaterials:redCrystal_2:10:4,dragonMaterials:runes_2:10:2,dragonMaterials:ingo_3:5:25,dragonMaterials:redSoul_3:5:10,dragonMaterials:redCrystal_3:5:33,dragonMaterials:runes_3:5:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:28,dragonMaterials:redSoul_3:5:11,dragonMaterials:redCrystal_3:5:36,dragonMaterials:runes_3:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:25,dragonMaterials:redSoul_3:6:10,dragonMaterials:redCrystal_3:6:32,dragonMaterials:runes_3:6:22,dragonMaterials:ingo_4:1:3,dragonMaterials:redSoul_4:1:1,dragonMaterials:redCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:22,dragonMaterials:redSoul_3:6:9,dragonMaterials:redCrystal_3:6:29,dragonMaterials:runes_3:6:20,dragonMaterials:ingo_4:1:5,dragonMaterials:redSoul_4:1:2,dragonMaterials:redCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:7:20,dragonMaterials:redSoul_3:7:8,dragonMaterials:redCrystal_3:7:25,dragonMaterials:runes_3:7:18,dragonMaterials:ingo_4:2:8,dragonMaterials:redSoul_4:2:3,dragonMaterials:redCrystal_4:2:11,dragonMaterials:runes_4:2:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:7:17,dragonMaterials:redSoul_3:7:7,dragonMaterials:redCrystal_3:7:22,dragonMaterials:runes_3:7:15,dragonMaterials:ingo_4:2:11,dragonMaterials:redSoul_4:2:4,dragonMaterials:redCrystal_4:2:14,dragonMaterials:runes_4:2:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:8:14,dragonMaterials:redSoul_3:8:6,dragonMaterials:redCrystal_3:8:18,dragonMaterials:runes_3:8:12,dragonMaterials:ingo_4:3:14,dragonMaterials:redSoul_4:3:5,dragonMaterials:redCrystal_4:3:19,dragonMaterials:runes_4:3:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:8:11,dragonMaterials:redSoul_3:8:4,dragonMaterials:redCrystal_3:8:14,dragonMaterials:runes_3:8:10,dragonMaterials:ingo_4:3:17,dragonMaterials:redSoul_4:3:7,dragonMaterials:redCrystal_4:3:22,dragonMaterials:runes_4:3:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:9:8,dragonMaterials:redSoul_3:9:3,dragonMaterials:redCrystal_3:9:11,dragonMaterials:runes_3:9:8,dragonMaterials:ingo_4:4:20,dragonMaterials:redSoul_4:4:8,dragonMaterials:redCrystal_4:4:25,dragonMaterials:runes_4:4:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:9:6,dragonMaterials:redSoul_3:9:2,dragonMaterials:redCrystal_3:9:7,dragonMaterials:runes_3:9:5,dragonMaterials:ingo_4:4:22,dragonMaterials:redSoul_4:4:9,dragonMaterials:redCrystal_4:4:29,dragonMaterials:runes_4:4:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:10:3,dragonMaterials:redSoul_3:10:1,dragonMaterials:redCrystal_3:10:4,dragonMaterials:runes_3:10:2,dragonMaterials:ingo_4:5:25,dragonMaterials:redSoul_4:5:10,dragonMaterials:redCrystal_4:5:33,dragonMaterials:runes_4:5:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:28,dragonMaterials:redSoul_4:5:11,dragonMaterials:redCrystal_4:5:36,dragonMaterials:runes_4:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:2:28,dragonMaterials:blueCrystal_1:2:37,dragonMaterials:runes_1:2:25,dragonMaterials:ingo_2:1:3,dragonMaterials:blueSoul_2:1:1,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:runes_2:1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3:25,dragonMaterials:blueCrystal_1:3:33,dragonMaterials:runes_1:3:22,dragonMaterials:ingo_2:1:6,dragonMaterials:blueSoul_2:1:2,dragonMaterials:blueCrystal_2:1:7,dragonMaterials:runes_2:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:4:22,dragonMaterials:blueCrystal_1:4:29,dragonMaterials:runes_1:4:20,dragonMaterials:ingo_2:2:8,dragonMaterials:blueSoul_2:2:3,dragonMaterials:blueCrystal_2:2:11,dragonMaterials:runes_2:2:7</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5:18,dragonMaterials:blueCrystal_1:5:25,dragonMaterials:runes_1:5:17,dragonMaterials:ingo_2:2:11,dragonMaterials:blueSoul_2:2:4,dragonMaterials:blueCrystal_2:2:15,dragonMaterials:runes_2:2:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6:16,dragonMaterials:blueCrystal_1:6:21,dragonMaterials:runes_1:6:14,dragonMaterials:ingo_2:3:14,dragonMaterials:blueSoul_2:3:5,dragonMaterials:blueCrystal_2:3:18,dragonMaterials:runes_2:3:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:7:12,dragonMaterials:blueCrystal_1:7:16,dragonMaterials:runes_1:7:12,dragonMaterials:ingo_2:3:17,dragonMaterials:blueSoul_2:3:6,dragonMaterials:blueCrystal_2:3:22,dragonMaterials:runes_2:3:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:8:9,dragonMaterials:blueCrystal_1:8:12,dragonMaterials:runes_1:8:8,dragonMaterials:ingo_2:4:20,dragonMaterials:blueSoul_2:4:8,dragonMaterials:blueCrystal_2:4:25,dragonMaterials:runes_2:4:18</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:9:6,dragonMaterials:blueCrystal_1:9:8,dragonMaterials:runes_1:9:6,dragonMaterials:ingo_2:4:22,dragonMaterials:blueSoul_2:4:9,dragonMaterials:blueCrystal_2:4:29,dragonMaterials:runes_2:4:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:10:3,dragonMaterials:blueCrystal_1:10:4,dragonMaterials:runes_1:10:3,dragonMaterials:ingo_2:5:25,dragonMaterials:blueSoul_2:5:10,dragonMaterials:blueCrystal_2:5:33,dragonMaterials:runes_2:5:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:5:28,dragonMaterials:blueSoul_2:5:11,dragonMaterials:blueCrystal_2:5:36,dragonMaterials:runes_2:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:25,dragonMaterials:blueSoul_2:6:10,dragonMaterials:blueCrystal_2:6:32,dragonMaterials:runes_2:6:22,dragonMaterials:ingo_3:1:3,dragonMaterials:blueSoul_3:1:1,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:runes_3:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:22,dragonMaterials:blueSoul_2:6:9,dragonMaterials:blueCrystal_2:6:29,dragonMaterials:runes_2:6:20,dragonMaterials:ingo_3:1:5,dragonMaterials:blueSoul_3:1:2,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:runes_3:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:7:20,dragonMaterials:blueSoul_2:7:8,dragonMaterials:blueCrystal_2:7:25,dragonMaterials:runes_2:7:18,dragonMaterials:ingo_3:2:8,dragonMaterials:blueSoul_3:2:3,dragonMaterials:blueCrystal_3:2:11,dragonMaterials:runes_3:2:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:7:17,dragonMaterials:blueSoul_2:7:7,dragonMaterials:blueCrystal_2:7:22,dragonMaterials:runes_2:7:15,dragonMaterials:ingo_3:2:11,dragonMaterials:blueSoul_3:2:4,dragonMaterials:blueCrystal_3:2:14,dragonMaterials:runes_3:2:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:8:14,dragonMaterials:blueSoul_2:8:6,dragonMaterials:blueCrystal_2:8:18,dragonMaterials:runes_2:8:12,dragonMaterials:ingo_3:3:14,dragonMaterials:blueSoul_3:3:5,dragonMaterials:blueCrystal_3:3:19,dragonMaterials:runes_3:3:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:8:11,dragonMaterials:blueSoul_2:8:4,dragonMaterials:blueCrystal_2:8:14,dragonMaterials:runes_2:8:10,dragonMaterials:ingo_3:3:17,dragonMaterials:blueSoul_3:3:7,dragonMaterials:blueCrystal_3:3:22,dragonMaterials:runes_3:3:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:9:8,dragonMaterials:blueSoul_2:9:3,dragonMaterials:blueCrystal_2:9:11,dragonMaterials:runes_2:9:8,dragonMaterials:ingo_3:4:20,dragonMaterials:blueSoul_3:4:8,dragonMaterials:blueCrystal_3:4:25,dragonMaterials:runes_3:4:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:9:6,dragonMaterials:blueSoul_2:9:2,dragonMaterials:blueCrystal_2:9:7,dragonMaterials:runes_2:9:5,dragonMaterials:ingo_3:4:22,dragonMaterials:blueSoul_3:4:9,dragonMaterials:blueCrystal_3:4:29,dragonMaterials:runes_3:4:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:10:3,dragonMaterials:blueSoul_2:10:1,dragonMaterials:blueCrystal_2:10:4,dragonMaterials:runes_2:10:2,dragonMaterials:ingo_3:5:25,dragonMaterials:blueSoul_3:5:10,dragonMaterials:blueCrystal_3:5:33,dragonMaterials:runes_3:5:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:28,dragonMaterials:blueSoul_3:5:11,dragonMaterials:blueCrystal_3:5:36,dragonMaterials:runes_3:5:25</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:25,dragonMaterials:blueSoul_3:6:10,dragonMaterials:blueCrystal_3:6:32,dragonMaterials:runes_3:6:22,dragonMaterials:ingo_4:1:3,dragonMaterials:blueSoul_4:1:1,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:runes_4:1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:22,dragonMaterials:blueSoul_3:6:9,dragonMaterials:blueCrystal_3:6:29,dragonMaterials:runes_3:6:20,dragonMaterials:ingo_4:1:5,dragonMaterials:blueSoul_4:1:2,dragonMaterials:blueCrystal_4:1:8,dragonMaterials:runes_4:1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:7:20,dragonMaterials:blueSoul_3:7:8,dragonMaterials:blueCrystal_3:7:25,dragonMaterials:runes_3:7:18,dragonMaterials:ingo_4:2:8,dragonMaterials:blueSoul_4:2:3,dragonMaterials:blueCrystal_4:2:11,dragonMaterials:runes_4:2:8</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:7:17,dragonMaterials:blueSoul_3:7:7,dragonMaterials:blueCrystal_3:7:22,dragonMaterials:runes_3:7:15,dragonMaterials:ingo_4:2:11,dragonMaterials:blueSoul_4:2:4,dragonMaterials:blueCrystal_4:2:14,dragonMaterials:runes_4:2:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:8:14,dragonMaterials:blueSoul_3:8:6,dragonMaterials:blueCrystal_3:8:18,dragonMaterials:runes_3:8:12,dragonMaterials:ingo_4:3:14,dragonMaterials:blueSoul_4:3:5,dragonMaterials:blueCrystal_4:3:19,dragonMaterials:runes_4:3:12</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:8:11,dragonMaterials:blueSoul_3:8:4,dragonMaterials:blueCrystal_3:8:14,dragonMaterials:runes_3:8:10,dragonMaterials:ingo_4:3:17,dragonMaterials:blueSoul_4:3:7,dragonMaterials:blueCrystal_4:3:22,dragonMaterials:runes_4:3:15</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:9:8,dragonMaterials:blueSoul_3:9:3,dragonMaterials:blueCrystal_3:9:11,dragonMaterials:runes_3:9:8,dragonMaterials:ingo_4:4:20,dragonMaterials:blueSoul_4:4:8,dragonMaterials:blueCrystal_4:4:25,dragonMaterials:runes_4:4:17</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:9:6,dragonMaterials:blueSoul_3:9:2,dragonMaterials:blueCrystal_3:9:7,dragonMaterials:runes_3:9:5,dragonMaterials:ingo_4:4:22,dragonMaterials:blueSoul_4:4:9,dragonMaterials:blueCrystal_4:4:29,dragonMaterials:runes_4:4:20</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:10:3,dragonMaterials:blueSoul_3:10:1,dragonMaterials:blueCrystal_3:10:4,dragonMaterials:runes_3:10:2,dragonMaterials:ingo_4:5:25,dragonMaterials:blueSoul_4:5:10,dragonMaterials:blueCrystal_4:5:33,dragonMaterials:runes_4:5:22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:5:28,dragonMaterials:blueSoul_4:5:11,dragonMaterials:blueCrystal_4:5:36,dragonMaterials:runes_4:5:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +393,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -431,8 +439,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -716,8 +737,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,8 +751,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="285">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -871,6 +900,7 @@
     <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1012,6 +1042,7 @@
     <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1343,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1380,7 +1411,7 @@
         <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1394,7 +1425,7 @@
         <v>401</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1408,7 +1439,7 @@
         <v>601</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1422,7 +1453,7 @@
         <v>701</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1436,7 +1467,7 @@
         <v>801</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1450,7 +1481,7 @@
         <v>901</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1464,7 +1495,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1492,7 +1523,7 @@
         <v>1301</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1506,7 +1537,7 @@
         <v>2601</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -1520,7 +1551,7 @@
         <v>3101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -1534,7 +1565,7 @@
         <v>3601</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -1548,7 +1579,7 @@
         <v>4101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -1562,7 +1593,7 @@
         <v>4601</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -1576,7 +1607,7 @@
         <v>5101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -1590,7 +1621,7 @@
         <v>6701</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -1604,7 +1635,7 @@
         <v>8301</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1618,7 +1649,7 @@
         <v>10801</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -1632,7 +1663,7 @@
         <v>12401</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -1646,7 +1677,7 @@
         <v>15101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -1660,7 +1691,7 @@
         <v>19801</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -1674,7 +1705,7 @@
         <v>23801</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -1688,7 +1719,7 @@
         <v>28201</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -1702,7 +1733,7 @@
         <v>32801</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -1716,7 +1747,7 @@
         <v>37801</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -1730,7 +1761,7 @@
         <v>39201</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -1744,7 +1775,7 @@
         <v>44501</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -1758,7 +1789,7 @@
         <v>50001</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -1772,7 +1803,7 @@
         <v>60001</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -1786,7 +1817,7 @@
         <v>80001</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -1800,7 +1831,7 @@
         <v>100000</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1851,13 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="A1:D32"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="2"/>
-    <col min="4" max="4" width="128.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="237.5" style="2" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -1855,7 +1886,7 @@
         <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1869,7 +1900,7 @@
         <v>401</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1883,7 +1914,7 @@
         <v>601</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1897,7 +1928,7 @@
         <v>701</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1911,7 +1942,7 @@
         <v>801</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1925,7 +1956,7 @@
         <v>901</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1939,7 +1970,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1953,7 +1984,7 @@
         <v>1101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1967,7 +1998,7 @@
         <v>1301</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1981,7 +2012,7 @@
         <v>2601</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -1995,7 +2026,7 @@
         <v>3101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -2009,7 +2040,7 @@
         <v>3601</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -2023,7 +2054,7 @@
         <v>4101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -2037,7 +2068,7 @@
         <v>4601</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -2051,7 +2082,7 @@
         <v>5101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -2065,7 +2096,7 @@
         <v>6701</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -2079,7 +2110,7 @@
         <v>8301</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -2093,7 +2124,7 @@
         <v>10801</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -2107,7 +2138,7 @@
         <v>12401</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -2121,7 +2152,7 @@
         <v>15101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -2135,7 +2166,7 @@
         <v>19801</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -2149,7 +2180,7 @@
         <v>23801</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -2163,7 +2194,7 @@
         <v>28201</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -2177,7 +2208,7 @@
         <v>32801</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2191,7 +2222,7 @@
         <v>37801</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2205,7 +2236,7 @@
         <v>39201</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -2219,7 +2250,7 @@
         <v>44501</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -2233,7 +2264,7 @@
         <v>50001</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -2247,7 +2278,7 @@
         <v>60001</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -2261,7 +2292,7 @@
         <v>80001</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -2275,7 +2306,7 @@
         <v>100000</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2294,14 +2325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="2"/>
-    <col min="4" max="4" width="137.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="232.1640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -2329,8 +2360,8 @@
       <c r="C2" s="2">
         <v>301</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2343,7 +2374,7 @@
       <c r="C3" s="2">
         <v>401</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2357,7 +2388,7 @@
       <c r="C4" s="2">
         <v>601</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2371,7 +2402,7 @@
       <c r="C5" s="2">
         <v>701</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2385,7 +2416,7 @@
       <c r="C6" s="2">
         <v>801</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2399,7 +2430,7 @@
       <c r="C7" s="2">
         <v>901</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2413,7 +2444,7 @@
       <c r="C8" s="2">
         <v>1001</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2427,7 +2458,7 @@
       <c r="C9" s="2">
         <v>1101</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2441,7 +2472,7 @@
       <c r="C10" s="2">
         <v>1301</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2455,7 +2486,7 @@
       <c r="C11" s="2">
         <v>2601</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2469,7 +2500,7 @@
       <c r="C12" s="2">
         <v>3101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2483,7 +2514,7 @@
       <c r="C13" s="2">
         <v>3601</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2497,7 +2528,7 @@
       <c r="C14" s="2">
         <v>4101</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2511,7 +2542,7 @@
       <c r="C15" s="2">
         <v>4601</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2525,7 +2556,7 @@
       <c r="C16" s="2">
         <v>5101</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2539,7 +2570,7 @@
       <c r="C17" s="2">
         <v>6701</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2553,7 +2584,7 @@
       <c r="C18" s="2">
         <v>8301</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2567,7 +2598,7 @@
       <c r="C19" s="2">
         <v>10801</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2581,7 +2612,7 @@
       <c r="C20" s="2">
         <v>12401</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2595,7 +2626,7 @@
       <c r="C21" s="2">
         <v>15101</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2609,7 +2640,7 @@
       <c r="C22" s="2">
         <v>19801</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2623,7 +2654,7 @@
       <c r="C23" s="2">
         <v>23801</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2637,7 +2668,7 @@
       <c r="C24" s="2">
         <v>28201</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2651,7 +2682,7 @@
       <c r="C25" s="2">
         <v>32801</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2665,7 +2696,7 @@
       <c r="C26" s="2">
         <v>37801</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2679,7 +2710,7 @@
       <c r="C27" s="2">
         <v>39201</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2693,7 +2724,7 @@
       <c r="C28" s="2">
         <v>44501</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2707,7 +2738,7 @@
       <c r="C29" s="2">
         <v>50001</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2721,7 +2752,7 @@
       <c r="C30" s="2">
         <v>60001</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2735,7 +2766,7 @@
       <c r="C31" s="2">
         <v>80001</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2749,7 +2780,7 @@
       <c r="C32" s="2">
         <v>100000</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
     </row>
